--- a/raw_data.xlsx
+++ b/raw_data.xlsx
@@ -1,35 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SyedSalimUzZaman\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\PythonScriptingLab4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E618F4BE-27B5-4780-95DB-A955478332C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B46B09-2AEA-489C-8C11-B425F078526E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6E230C22-0038-4123-8228-85349F6929A5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{6E230C22-0038-4123-8228-85349F6929A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -6216,7 +6205,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6671,23 +6660,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF2B698-2958-4CAD-92C5-2435A3711C65}">
   <dimension ref="A1:J984"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.140625" customWidth="1"/>
     <col min="2" max="2" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.28515625" customWidth="1"/>
+    <col min="4" max="4" width="64" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -6713,7 +6702,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
@@ -6739,7 +6728,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -6765,7 +6754,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -6791,7 +6780,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -6820,7 +6809,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -6846,7 +6835,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -6872,7 +6861,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -6898,7 +6887,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -6924,7 +6913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -6950,7 +6939,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -6976,7 +6965,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
@@ -7002,7 +6991,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -7028,7 +7017,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
@@ -7054,7 +7043,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -7080,7 +7069,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>8</v>
       </c>
@@ -7106,7 +7095,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -7132,7 +7121,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>8</v>
       </c>
@@ -7158,7 +7147,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -7184,7 +7173,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>8</v>
       </c>
@@ -7210,7 +7199,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -7236,7 +7225,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>8</v>
       </c>
@@ -7262,7 +7251,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -7288,7 +7277,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>8</v>
       </c>
@@ -7314,7 +7303,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -7340,7 +7329,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>8</v>
       </c>
@@ -7366,7 +7355,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
@@ -7392,7 +7381,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>8</v>
       </c>
@@ -7418,7 +7407,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -7444,7 +7433,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>8</v>
       </c>
@@ -7470,7 +7459,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
@@ -7496,7 +7485,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>77</v>
       </c>
@@ -7522,7 +7511,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>77</v>
       </c>
@@ -7548,7 +7537,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>77</v>
       </c>
@@ -7574,7 +7563,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>77</v>
       </c>
@@ -7600,7 +7589,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>77</v>
       </c>
@@ -7626,7 +7615,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>77</v>
       </c>
@@ -7652,7 +7641,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>77</v>
       </c>
@@ -7678,7 +7667,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>77</v>
       </c>
@@ -7704,7 +7693,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>77</v>
       </c>
@@ -7730,7 +7719,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>77</v>
       </c>
@@ -7756,7 +7745,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>77</v>
       </c>
@@ -7782,7 +7771,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>77</v>
       </c>
@@ -7808,7 +7797,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>77</v>
       </c>
@@ -7834,7 +7823,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>77</v>
       </c>
@@ -7860,7 +7849,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>77</v>
       </c>
@@ -7886,7 +7875,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>77</v>
       </c>
@@ -7912,7 +7901,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>77</v>
       </c>
@@ -7938,7 +7927,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>77</v>
       </c>
@@ -7964,7 +7953,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>77</v>
       </c>
@@ -7990,7 +7979,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>77</v>
       </c>
@@ -8016,7 +8005,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>77</v>
       </c>
@@ -8042,7 +8031,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>77</v>
       </c>
@@ -8068,7 +8057,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>77</v>
       </c>
@@ -8094,7 +8083,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>77</v>
       </c>
@@ -8120,7 +8109,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>77</v>
       </c>
@@ -8146,7 +8135,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>77</v>
       </c>
@@ -8172,7 +8161,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>77</v>
       </c>
@@ -8198,7 +8187,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>77</v>
       </c>
@@ -8224,7 +8213,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>77</v>
       </c>
@@ -8250,7 +8239,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>77</v>
       </c>
@@ -8276,7 +8265,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>77</v>
       </c>
@@ -8302,7 +8291,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>77</v>
       </c>
@@ -8328,7 +8317,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>77</v>
       </c>
@@ -8354,7 +8343,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>77</v>
       </c>
@@ -8380,7 +8369,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>77</v>
       </c>
@@ -8406,7 +8395,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>77</v>
       </c>
@@ -8432,7 +8421,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>77</v>
       </c>
@@ -8458,7 +8447,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>77</v>
       </c>
@@ -8484,7 +8473,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>77</v>
       </c>
@@ -8510,7 +8499,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>77</v>
       </c>
@@ -8536,7 +8525,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>77</v>
       </c>
@@ -8562,7 +8551,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>77</v>
       </c>
@@ -8588,7 +8577,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>77</v>
       </c>
@@ -8614,7 +8603,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>77</v>
       </c>
@@ -8640,7 +8629,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>77</v>
       </c>
@@ -8666,7 +8655,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>77</v>
       </c>
@@ -8692,7 +8681,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>77</v>
       </c>
@@ -8718,7 +8707,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>175</v>
       </c>
@@ -8744,7 +8733,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>175</v>
       </c>
@@ -8770,7 +8759,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>175</v>
       </c>
@@ -8796,7 +8785,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>175</v>
       </c>
@@ -8822,7 +8811,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>175</v>
       </c>
@@ -8848,7 +8837,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>175</v>
       </c>
@@ -8874,7 +8863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>175</v>
       </c>
@@ -8900,7 +8889,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>175</v>
       </c>
@@ -8926,7 +8915,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>175</v>
       </c>
@@ -8952,7 +8941,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>175</v>
       </c>
@@ -8978,7 +8967,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>175</v>
       </c>
@@ -9004,7 +8993,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>175</v>
       </c>
@@ -9030,7 +9019,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>175</v>
       </c>
@@ -9056,7 +9045,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>175</v>
       </c>
@@ -9082,7 +9071,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>175</v>
       </c>
@@ -9108,7 +9097,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>175</v>
       </c>
@@ -9134,7 +9123,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>175</v>
       </c>
@@ -9160,7 +9149,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>175</v>
       </c>
@@ -9186,7 +9175,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>213</v>
       </c>
@@ -9212,7 +9201,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>213</v>
       </c>
@@ -9238,7 +9227,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>213</v>
       </c>
@@ -9264,7 +9253,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>213</v>
       </c>
@@ -9290,7 +9279,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>213</v>
       </c>
@@ -9316,7 +9305,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>213</v>
       </c>
@@ -9342,7 +9331,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>213</v>
       </c>
@@ -9368,7 +9357,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>213</v>
       </c>
@@ -9394,7 +9383,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>213</v>
       </c>
@@ -9420,7 +9409,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>213</v>
       </c>
@@ -9446,7 +9435,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>213</v>
       </c>
@@ -9472,7 +9461,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>213</v>
       </c>
@@ -9498,7 +9487,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>213</v>
       </c>
@@ -9524,7 +9513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>213</v>
       </c>
@@ -9550,7 +9539,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>213</v>
       </c>
@@ -9576,7 +9565,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>213</v>
       </c>
@@ -9602,7 +9591,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>213</v>
       </c>
@@ -9628,7 +9617,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>213</v>
       </c>
@@ -9654,7 +9643,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>213</v>
       </c>
@@ -9680,7 +9669,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
         <v>213</v>
       </c>
@@ -9706,7 +9695,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>213</v>
       </c>
@@ -9732,7 +9721,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>213</v>
       </c>
@@ -9758,7 +9747,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>213</v>
       </c>
@@ -9784,7 +9773,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>213</v>
       </c>
@@ -9810,7 +9799,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>213</v>
       </c>
@@ -9836,7 +9825,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>213</v>
       </c>
@@ -9862,7 +9851,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>213</v>
       </c>
@@ -9888,7 +9877,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
         <v>213</v>
       </c>
@@ -9914,7 +9903,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>213</v>
       </c>
@@ -9940,7 +9929,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>213</v>
       </c>
@@ -9966,7 +9955,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>213</v>
       </c>
@@ -9992,7 +9981,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>213</v>
       </c>
@@ -10018,7 +10007,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>213</v>
       </c>
@@ -10044,7 +10033,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>281</v>
       </c>
@@ -10070,7 +10059,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>285</v>
       </c>
@@ -10096,7 +10085,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>285</v>
       </c>
@@ -10122,7 +10111,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>291</v>
       </c>
@@ -10148,7 +10137,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>291</v>
       </c>
@@ -10174,7 +10163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>291</v>
       </c>
@@ -10200,7 +10189,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>291</v>
       </c>
@@ -10226,7 +10215,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>291</v>
       </c>
@@ -10252,7 +10241,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>291</v>
       </c>
@@ -10278,7 +10267,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>291</v>
       </c>
@@ -10304,7 +10293,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
         <v>291</v>
       </c>
@@ -10330,7 +10319,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>291</v>
       </c>
@@ -10356,7 +10345,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
         <v>291</v>
       </c>
@@ -10382,7 +10371,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>291</v>
       </c>
@@ -10408,7 +10397,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>291</v>
       </c>
@@ -10434,7 +10423,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>291</v>
       </c>
@@ -10460,7 +10449,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
         <v>291</v>
       </c>
@@ -10486,7 +10475,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>291</v>
       </c>
@@ -10512,7 +10501,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
         <v>291</v>
       </c>
@@ -10538,7 +10527,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>291</v>
       </c>
@@ -10564,7 +10553,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
         <v>291</v>
       </c>
@@ -10590,7 +10579,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>291</v>
       </c>
@@ -10616,7 +10605,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>291</v>
       </c>
@@ -10642,7 +10631,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>291</v>
       </c>
@@ -10668,7 +10657,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>291</v>
       </c>
@@ -10694,7 +10683,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>291</v>
       </c>
@@ -10720,7 +10709,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
         <v>291</v>
       </c>
@@ -10746,7 +10735,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>291</v>
       </c>
@@ -10772,7 +10761,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
         <v>291</v>
       </c>
@@ -10798,7 +10787,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>291</v>
       </c>
@@ -10824,7 +10813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
         <v>291</v>
       </c>
@@ -10850,7 +10839,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>349</v>
       </c>
@@ -10876,7 +10865,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
         <v>349</v>
       </c>
@@ -10902,7 +10891,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>355</v>
       </c>
@@ -10928,7 +10917,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
         <v>359</v>
       </c>
@@ -10954,7 +10943,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>359</v>
       </c>
@@ -10980,7 +10969,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
         <v>365</v>
       </c>
@@ -11006,7 +10995,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>365</v>
       </c>
@@ -11032,7 +11021,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
         <v>365</v>
       </c>
@@ -11058,7 +11047,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>365</v>
       </c>
@@ -11084,7 +11073,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>365</v>
       </c>
@@ -11110,7 +11099,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>365</v>
       </c>
@@ -11136,7 +11125,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
         <v>365</v>
       </c>
@@ -11162,7 +11151,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>365</v>
       </c>
@@ -11188,7 +11177,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
         <v>365</v>
       </c>
@@ -11214,7 +11203,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>365</v>
       </c>
@@ -11240,7 +11229,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
         <v>365</v>
       </c>
@@ -11266,7 +11255,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>365</v>
       </c>
@@ -11292,7 +11281,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
         <v>365</v>
       </c>
@@ -11318,7 +11307,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>365</v>
       </c>
@@ -11344,7 +11333,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
         <v>365</v>
       </c>
@@ -11370,7 +11359,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>365</v>
       </c>
@@ -11396,7 +11385,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
         <v>365</v>
       </c>
@@ -11422,7 +11411,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>365</v>
       </c>
@@ -11448,7 +11437,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
         <v>365</v>
       </c>
@@ -11474,7 +11463,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>365</v>
       </c>
@@ -11500,7 +11489,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
         <v>365</v>
       </c>
@@ -11526,7 +11515,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>365</v>
       </c>
@@ -11552,7 +11541,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
         <v>365</v>
       </c>
@@ -11578,7 +11567,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>365</v>
       </c>
@@ -11604,7 +11593,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
         <v>365</v>
       </c>
@@ -11630,7 +11619,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>365</v>
       </c>
@@ -11656,7 +11645,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
         <v>365</v>
       </c>
@@ -11682,7 +11671,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>365</v>
       </c>
@@ -11708,7 +11697,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
         <v>365</v>
       </c>
@@ -11734,7 +11723,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>365</v>
       </c>
@@ -11760,7 +11749,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
         <v>365</v>
       </c>
@@ -11786,7 +11775,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>365</v>
       </c>
@@ -11812,7 +11801,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
         <v>365</v>
       </c>
@@ -11838,7 +11827,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>365</v>
       </c>
@@ -11864,7 +11853,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
         <v>365</v>
       </c>
@@ -11890,7 +11879,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>365</v>
       </c>
@@ -11916,7 +11905,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
         <v>365</v>
       </c>
@@ -11942,7 +11931,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>365</v>
       </c>
@@ -11968,7 +11957,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
         <v>365</v>
       </c>
@@ -11994,7 +11983,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>365</v>
       </c>
@@ -12020,7 +12009,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
         <v>365</v>
       </c>
@@ -12046,7 +12035,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>365</v>
       </c>
@@ -12072,7 +12061,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
         <v>365</v>
       </c>
@@ -12098,7 +12087,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>365</v>
       </c>
@@ -12124,7 +12113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
         <v>365</v>
       </c>
@@ -12150,7 +12139,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>365</v>
       </c>
@@ -12176,7 +12165,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
         <v>365</v>
       </c>
@@ -12202,7 +12191,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>365</v>
       </c>
@@ -12228,7 +12217,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
         <v>365</v>
       </c>
@@ -12254,7 +12243,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>365</v>
       </c>
@@ -12280,7 +12269,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
         <v>365</v>
       </c>
@@ -12306,7 +12295,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>365</v>
       </c>
@@ -12332,7 +12321,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
         <v>365</v>
       </c>
@@ -12358,7 +12347,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>365</v>
       </c>
@@ -12384,7 +12373,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
         <v>365</v>
       </c>
@@ -12410,7 +12399,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>365</v>
       </c>
@@ -12436,7 +12425,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
         <v>365</v>
       </c>
@@ -12462,7 +12451,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>365</v>
       </c>
@@ -12488,7 +12477,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
         <v>365</v>
       </c>
@@ -12514,7 +12503,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>365</v>
       </c>
@@ -12540,7 +12529,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
         <v>365</v>
       </c>
@@ -12566,7 +12555,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>365</v>
       </c>
@@ -12592,7 +12581,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
         <v>365</v>
       </c>
@@ -12618,7 +12607,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>365</v>
       </c>
@@ -12644,7 +12633,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="4" t="s">
         <v>365</v>
       </c>
@@ -12670,7 +12659,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>365</v>
       </c>
@@ -12696,7 +12685,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
         <v>365</v>
       </c>
@@ -12722,7 +12711,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>365</v>
       </c>
@@ -12748,7 +12737,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
         <v>365</v>
       </c>
@@ -12774,7 +12763,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>365</v>
       </c>
@@ -12800,7 +12789,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
         <v>365</v>
       </c>
@@ -12826,7 +12815,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>365</v>
       </c>
@@ -12852,7 +12841,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
         <v>365</v>
       </c>
@@ -12878,7 +12867,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>365</v>
       </c>
@@ -12904,7 +12893,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
         <v>365</v>
       </c>
@@ -12930,7 +12919,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>365</v>
       </c>
@@ -12956,7 +12945,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
         <v>365</v>
       </c>
@@ -12982,7 +12971,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>365</v>
       </c>
@@ -13008,7 +12997,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="4" t="s">
         <v>365</v>
       </c>
@@ -13034,7 +13023,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>365</v>
       </c>
@@ -13060,7 +13049,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="4" t="s">
         <v>365</v>
       </c>
@@ -13086,7 +13075,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>365</v>
       </c>
@@ -13112,7 +13101,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="4" t="s">
         <v>365</v>
       </c>
@@ -13138,7 +13127,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>365</v>
       </c>
@@ -13164,7 +13153,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="4" t="s">
         <v>365</v>
       </c>
@@ -13190,7 +13179,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>365</v>
       </c>
@@ -13216,7 +13205,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="4" t="s">
         <v>365</v>
       </c>
@@ -13242,7 +13231,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>365</v>
       </c>
@@ -13268,7 +13257,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="4" t="s">
         <v>365</v>
       </c>
@@ -13294,7 +13283,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>365</v>
       </c>
@@ -13320,7 +13309,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
         <v>365</v>
       </c>
@@ -13346,7 +13335,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>365</v>
       </c>
@@ -13372,7 +13361,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="4" t="s">
         <v>365</v>
       </c>
@@ -13398,7 +13387,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>365</v>
       </c>
@@ -13424,7 +13413,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="4" t="s">
         <v>365</v>
       </c>
@@ -13450,7 +13439,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>365</v>
       </c>
@@ -13476,7 +13465,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="4" t="s">
         <v>365</v>
       </c>
@@ -13502,7 +13491,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>365</v>
       </c>
@@ -13528,7 +13517,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="4" t="s">
         <v>365</v>
       </c>
@@ -13554,7 +13543,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>365</v>
       </c>
@@ -13580,7 +13569,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="4" t="s">
         <v>365</v>
       </c>
@@ -13606,7 +13595,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>365</v>
       </c>
@@ -13632,7 +13621,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="4" t="s">
         <v>365</v>
       </c>
@@ -13658,7 +13647,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>365</v>
       </c>
@@ -13684,7 +13673,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="270" spans="1:8">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="4" t="s">
         <v>365</v>
       </c>
@@ -13710,7 +13699,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="271" spans="1:8">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>365</v>
       </c>
@@ -13736,7 +13725,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="272" spans="1:8">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="4" t="s">
         <v>365</v>
       </c>
@@ -13762,7 +13751,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>365</v>
       </c>
@@ -13788,7 +13777,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="274" spans="1:8">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="4" t="s">
         <v>365</v>
       </c>
@@ -13814,7 +13803,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>365</v>
       </c>
@@ -13840,7 +13829,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="4" t="s">
         <v>587</v>
       </c>
@@ -13866,7 +13855,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="277" spans="1:8">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>587</v>
       </c>
@@ -13892,7 +13881,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="4" t="s">
         <v>587</v>
       </c>
@@ -13918,7 +13907,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>587</v>
       </c>
@@ -13944,7 +13933,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="280" spans="1:8">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="4" t="s">
         <v>587</v>
       </c>
@@ -13970,7 +13959,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>587</v>
       </c>
@@ -13996,7 +13985,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="4" t="s">
         <v>587</v>
       </c>
@@ -14022,7 +14011,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>587</v>
       </c>
@@ -14048,7 +14037,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="4" t="s">
         <v>587</v>
       </c>
@@ -14074,7 +14063,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>587</v>
       </c>
@@ -14100,7 +14089,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="4" t="s">
         <v>587</v>
       </c>
@@ -14126,7 +14115,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>587</v>
       </c>
@@ -14152,7 +14141,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="288" spans="1:8">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="4" t="s">
         <v>587</v>
       </c>
@@ -14178,7 +14167,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>587</v>
       </c>
@@ -14204,7 +14193,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="4" t="s">
         <v>587</v>
       </c>
@@ -14230,7 +14219,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>587</v>
       </c>
@@ -14256,7 +14245,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="4" t="s">
         <v>587</v>
       </c>
@@ -14282,7 +14271,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>587</v>
       </c>
@@ -14308,7 +14297,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="4" t="s">
         <v>587</v>
       </c>
@@ -14334,7 +14323,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>587</v>
       </c>
@@ -14360,7 +14349,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="4" t="s">
         <v>587</v>
       </c>
@@ -14386,7 +14375,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>587</v>
       </c>
@@ -14412,7 +14401,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="4" t="s">
         <v>587</v>
       </c>
@@ -14438,7 +14427,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>587</v>
       </c>
@@ -14464,7 +14453,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="4" t="s">
         <v>587</v>
       </c>
@@ -14490,7 +14479,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>587</v>
       </c>
@@ -14516,7 +14505,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" s="4" t="s">
         <v>587</v>
       </c>
@@ -14542,7 +14531,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="303" spans="1:8">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>587</v>
       </c>
@@ -14568,7 +14557,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="304" spans="1:8">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="4" t="s">
         <v>587</v>
       </c>
@@ -14594,7 +14583,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="305" spans="1:8">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>648</v>
       </c>
@@ -14620,7 +14609,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="306" spans="1:8">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" s="4" t="s">
         <v>648</v>
       </c>
@@ -14646,7 +14635,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="307" spans="1:8">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>648</v>
       </c>
@@ -14672,7 +14661,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="308" spans="1:8">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" s="4" t="s">
         <v>656</v>
       </c>
@@ -14698,7 +14687,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="309" spans="1:8">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>656</v>
       </c>
@@ -14724,7 +14713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="310" spans="1:8">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" s="4" t="s">
         <v>662</v>
       </c>
@@ -14750,7 +14739,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="311" spans="1:8">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>662</v>
       </c>
@@ -14776,7 +14765,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="312" spans="1:8">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" s="4" t="s">
         <v>662</v>
       </c>
@@ -14802,7 +14791,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="313" spans="1:8">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>662</v>
       </c>
@@ -14828,7 +14817,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="314" spans="1:8">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" s="4" t="s">
         <v>662</v>
       </c>
@@ -14854,7 +14843,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="315" spans="1:8">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>662</v>
       </c>
@@ -14880,7 +14869,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="316" spans="1:8">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" s="4" t="s">
         <v>662</v>
       </c>
@@ -14906,7 +14895,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="317" spans="1:8">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>662</v>
       </c>
@@ -14932,7 +14921,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="318" spans="1:8">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" s="4" t="s">
         <v>662</v>
       </c>
@@ -14958,7 +14947,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="319" spans="1:8">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>662</v>
       </c>
@@ -14984,7 +14973,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="320" spans="1:8">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" s="4" t="s">
         <v>662</v>
       </c>
@@ -15010,7 +14999,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="321" spans="1:8">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>662</v>
       </c>
@@ -15036,7 +15025,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="322" spans="1:8">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" s="4" t="s">
         <v>662</v>
       </c>
@@ -15062,7 +15051,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="323" spans="1:8">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>662</v>
       </c>
@@ -15088,7 +15077,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="324" spans="1:8">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" s="4" t="s">
         <v>662</v>
       </c>
@@ -15114,7 +15103,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="325" spans="1:8">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>662</v>
       </c>
@@ -15140,7 +15129,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="326" spans="1:8">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" s="4" t="s">
         <v>662</v>
       </c>
@@ -15166,7 +15155,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="327" spans="1:8">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>662</v>
       </c>
@@ -15192,7 +15181,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="328" spans="1:8">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" s="4" t="s">
         <v>662</v>
       </c>
@@ -15218,7 +15207,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="329" spans="1:8">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>662</v>
       </c>
@@ -15244,7 +15233,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="330" spans="1:8">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" s="4" t="s">
         <v>662</v>
       </c>
@@ -15270,7 +15259,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="331" spans="1:8">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>662</v>
       </c>
@@ -15296,7 +15285,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="332" spans="1:8">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" s="4" t="s">
         <v>662</v>
       </c>
@@ -15322,7 +15311,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="333" spans="1:8">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>662</v>
       </c>
@@ -15348,7 +15337,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="334" spans="1:8">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" s="4" t="s">
         <v>662</v>
       </c>
@@ -15374,7 +15363,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="335" spans="1:8">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>662</v>
       </c>
@@ -15400,7 +15389,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="336" spans="1:8">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" s="4" t="s">
         <v>662</v>
       </c>
@@ -15426,7 +15415,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="337" spans="1:8">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>662</v>
       </c>
@@ -15452,7 +15441,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="338" spans="1:8">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" s="4" t="s">
         <v>662</v>
       </c>
@@ -15478,7 +15467,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="339" spans="1:8">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>662</v>
       </c>
@@ -15504,7 +15493,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="340" spans="1:8">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" s="4" t="s">
         <v>662</v>
       </c>
@@ -15530,7 +15519,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="341" spans="1:8">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>662</v>
       </c>
@@ -15556,7 +15545,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="342" spans="1:8">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" s="4" t="s">
         <v>662</v>
       </c>
@@ -15582,7 +15571,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="343" spans="1:8">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>662</v>
       </c>
@@ -15608,7 +15597,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="344" spans="1:8">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" s="4" t="s">
         <v>662</v>
       </c>
@@ -15634,7 +15623,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="345" spans="1:8">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>662</v>
       </c>
@@ -15660,7 +15649,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="346" spans="1:8">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" s="4" t="s">
         <v>662</v>
       </c>
@@ -15686,7 +15675,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="347" spans="1:8">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>662</v>
       </c>
@@ -15712,7 +15701,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="348" spans="1:8">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" s="4" t="s">
         <v>662</v>
       </c>
@@ -15738,7 +15727,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="349" spans="1:8">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>662</v>
       </c>
@@ -15764,7 +15753,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="350" spans="1:8">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" s="4" t="s">
         <v>662</v>
       </c>
@@ -15790,7 +15779,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="351" spans="1:8">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>662</v>
       </c>
@@ -15816,7 +15805,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="352" spans="1:8">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" s="4" t="s">
         <v>662</v>
       </c>
@@ -15842,7 +15831,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="353" spans="1:8">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>662</v>
       </c>
@@ -15868,7 +15857,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="354" spans="1:8">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" s="4" t="s">
         <v>662</v>
       </c>
@@ -15894,7 +15883,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="355" spans="1:8">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>754</v>
       </c>
@@ -15920,7 +15909,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="356" spans="1:8">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" s="4" t="s">
         <v>754</v>
       </c>
@@ -15946,7 +15935,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="357" spans="1:8">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>754</v>
       </c>
@@ -15972,7 +15961,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="358" spans="1:8">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" s="4" t="s">
         <v>754</v>
       </c>
@@ -15998,7 +15987,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="359" spans="1:8">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>754</v>
       </c>
@@ -16024,7 +16013,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="360" spans="1:8">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" s="4" t="s">
         <v>754</v>
       </c>
@@ -16050,7 +16039,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="361" spans="1:8">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>754</v>
       </c>
@@ -16076,7 +16065,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="362" spans="1:8">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" s="4" t="s">
         <v>754</v>
       </c>
@@ -16102,7 +16091,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="363" spans="1:8">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>754</v>
       </c>
@@ -16128,7 +16117,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="364" spans="1:8">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" s="4" t="s">
         <v>754</v>
       </c>
@@ -16154,7 +16143,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="365" spans="1:8">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>754</v>
       </c>
@@ -16180,7 +16169,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="366" spans="1:8">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366" s="4" t="s">
         <v>754</v>
       </c>
@@ -16206,7 +16195,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="367" spans="1:8">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>754</v>
       </c>
@@ -16232,7 +16221,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="368" spans="1:8">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368" s="4" t="s">
         <v>754</v>
       </c>
@@ -16258,7 +16247,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="369" spans="1:8">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>754</v>
       </c>
@@ -16284,7 +16273,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="370" spans="1:8">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" s="4" t="s">
         <v>754</v>
       </c>
@@ -16310,7 +16299,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="371" spans="1:8">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>754</v>
       </c>
@@ -16336,7 +16325,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="372" spans="1:8">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" s="4" t="s">
         <v>754</v>
       </c>
@@ -16362,7 +16351,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="373" spans="1:8">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>754</v>
       </c>
@@ -16388,7 +16377,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="374" spans="1:8">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374" s="4" t="s">
         <v>754</v>
       </c>
@@ -16414,7 +16403,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="375" spans="1:8">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>754</v>
       </c>
@@ -16440,7 +16429,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="376" spans="1:8">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" s="4" t="s">
         <v>754</v>
       </c>
@@ -16466,7 +16455,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="377" spans="1:8">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>754</v>
       </c>
@@ -16492,7 +16481,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="378" spans="1:8">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" s="4" t="s">
         <v>754</v>
       </c>
@@ -16518,7 +16507,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="379" spans="1:8">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>754</v>
       </c>
@@ -16544,7 +16533,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="380" spans="1:8">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" s="4" t="s">
         <v>754</v>
       </c>
@@ -16570,7 +16559,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="381" spans="1:8">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>754</v>
       </c>
@@ -16596,7 +16585,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="382" spans="1:8">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382" s="4" t="s">
         <v>754</v>
       </c>
@@ -16622,7 +16611,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="383" spans="1:8">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>754</v>
       </c>
@@ -16648,7 +16637,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="384" spans="1:8">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" s="4" t="s">
         <v>754</v>
       </c>
@@ -16674,7 +16663,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="385" spans="1:8">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>754</v>
       </c>
@@ -16700,7 +16689,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="386" spans="1:8">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" s="4" t="s">
         <v>754</v>
       </c>
@@ -16726,7 +16715,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="387" spans="1:8">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>754</v>
       </c>
@@ -16752,7 +16741,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="388" spans="1:8">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388" s="4" t="s">
         <v>754</v>
       </c>
@@ -16778,7 +16767,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="389" spans="1:8">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>754</v>
       </c>
@@ -16804,7 +16793,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="390" spans="1:8">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390" s="4" t="s">
         <v>754</v>
       </c>
@@ -16830,7 +16819,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="391" spans="1:8">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>754</v>
       </c>
@@ -16856,7 +16845,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="392" spans="1:8">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392" s="4" t="s">
         <v>830</v>
       </c>
@@ -16882,7 +16871,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="393" spans="1:8">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>834</v>
       </c>
@@ -16908,7 +16897,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="394" spans="1:8">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394" s="4" t="s">
         <v>834</v>
       </c>
@@ -16934,7 +16923,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="395" spans="1:8">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>834</v>
       </c>
@@ -16960,7 +16949,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="396" spans="1:8">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396" s="4" t="s">
         <v>834</v>
       </c>
@@ -16986,7 +16975,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="397" spans="1:8">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>834</v>
       </c>
@@ -17012,7 +17001,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="398" spans="1:8">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398" s="4" t="s">
         <v>846</v>
       </c>
@@ -17038,7 +17027,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="399" spans="1:8">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>846</v>
       </c>
@@ -17064,7 +17053,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="400" spans="1:8">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400" s="4" t="s">
         <v>846</v>
       </c>
@@ -17090,7 +17079,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="401" spans="1:8">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>846</v>
       </c>
@@ -17116,7 +17105,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="402" spans="1:8">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402" s="4" t="s">
         <v>846</v>
       </c>
@@ -17142,7 +17131,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="403" spans="1:8">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>846</v>
       </c>
@@ -17168,7 +17157,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="404" spans="1:8">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404" s="4" t="s">
         <v>846</v>
       </c>
@@ -17194,7 +17183,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="405" spans="1:8">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>846</v>
       </c>
@@ -17220,7 +17209,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="406" spans="1:8">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406" s="4" t="s">
         <v>846</v>
       </c>
@@ -17246,7 +17235,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="407" spans="1:8">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>846</v>
       </c>
@@ -17272,7 +17261,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="408" spans="1:8">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408" s="4" t="s">
         <v>846</v>
       </c>
@@ -17298,7 +17287,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="409" spans="1:8">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>846</v>
       </c>
@@ -17324,7 +17313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="410" spans="1:8">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410" s="4" t="s">
         <v>846</v>
       </c>
@@ -17350,7 +17339,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="411" spans="1:8">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>846</v>
       </c>
@@ -17376,7 +17365,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="412" spans="1:8">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412" s="4" t="s">
         <v>846</v>
       </c>
@@ -17402,7 +17391,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="413" spans="1:8">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>846</v>
       </c>
@@ -17428,7 +17417,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="414" spans="1:8">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414" s="4" t="s">
         <v>846</v>
       </c>
@@ -17454,7 +17443,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="415" spans="1:8">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>846</v>
       </c>
@@ -17480,7 +17469,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="416" spans="1:8">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416" s="4" t="s">
         <v>846</v>
       </c>
@@ -17506,7 +17495,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="417" spans="1:8">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
         <v>846</v>
       </c>
@@ -17532,7 +17521,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="418" spans="1:8">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418" s="4" t="s">
         <v>846</v>
       </c>
@@ -17558,7 +17547,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="419" spans="1:8">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>846</v>
       </c>
@@ -17584,7 +17573,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="420" spans="1:8">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A420" s="4" t="s">
         <v>846</v>
       </c>
@@ -17610,7 +17599,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="421" spans="1:8">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>846</v>
       </c>
@@ -17636,7 +17625,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="422" spans="1:8">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422" s="4" t="s">
         <v>846</v>
       </c>
@@ -17662,7 +17651,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="423" spans="1:8">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
         <v>846</v>
       </c>
@@ -17688,7 +17677,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="424" spans="1:8">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424" s="4" t="s">
         <v>846</v>
       </c>
@@ -17714,7 +17703,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="425" spans="1:8">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
         <v>846</v>
       </c>
@@ -17740,7 +17729,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="426" spans="1:8">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426" s="4" t="s">
         <v>846</v>
       </c>
@@ -17766,7 +17755,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="427" spans="1:8">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
         <v>846</v>
       </c>
@@ -17792,7 +17781,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="428" spans="1:8">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428" s="4" t="s">
         <v>846</v>
       </c>
@@ -17818,7 +17807,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="429" spans="1:8">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>910</v>
       </c>
@@ -17844,7 +17833,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="430" spans="1:8">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430" s="4" t="s">
         <v>910</v>
       </c>
@@ -17870,7 +17859,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="431" spans="1:8">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
         <v>910</v>
       </c>
@@ -17896,7 +17885,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="432" spans="1:8">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432" s="4" t="s">
         <v>910</v>
       </c>
@@ -17922,7 +17911,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="433" spans="1:8">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
         <v>910</v>
       </c>
@@ -17948,7 +17937,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="434" spans="1:8">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434" s="4" t="s">
         <v>910</v>
       </c>
@@ -17974,7 +17963,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="435" spans="1:8">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
         <v>910</v>
       </c>
@@ -18000,7 +17989,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="436" spans="1:8">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436" s="4" t="s">
         <v>910</v>
       </c>
@@ -18026,7 +18015,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="437" spans="1:8">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
         <v>928</v>
       </c>
@@ -18052,7 +18041,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="438" spans="1:8">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438" s="4" t="s">
         <v>928</v>
       </c>
@@ -18078,7 +18067,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="439" spans="1:8">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
         <v>928</v>
       </c>
@@ -18104,7 +18093,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="440" spans="1:8">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440" s="4" t="s">
         <v>928</v>
       </c>
@@ -18130,7 +18119,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="441" spans="1:8">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
         <v>928</v>
       </c>
@@ -18156,7 +18145,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="442" spans="1:8">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442" s="4" t="s">
         <v>940</v>
       </c>
@@ -18182,7 +18171,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="443" spans="1:8">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
         <v>940</v>
       </c>
@@ -18208,7 +18197,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="444" spans="1:8">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444" s="4" t="s">
         <v>940</v>
       </c>
@@ -18234,7 +18223,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="445" spans="1:8">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
         <v>940</v>
       </c>
@@ -18260,7 +18249,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="446" spans="1:8">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446" s="4" t="s">
         <v>950</v>
       </c>
@@ -18286,7 +18275,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="447" spans="1:8">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
         <v>950</v>
       </c>
@@ -18312,7 +18301,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="448" spans="1:8">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448" s="4" t="s">
         <v>950</v>
       </c>
@@ -18338,7 +18327,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="449" spans="1:8">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
         <v>950</v>
       </c>
@@ -18364,7 +18353,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="450" spans="1:8">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450" s="4" t="s">
         <v>950</v>
       </c>
@@ -18390,7 +18379,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="451" spans="1:8">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
         <v>950</v>
       </c>
@@ -18416,7 +18405,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="452" spans="1:8">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452" s="4" t="s">
         <v>950</v>
       </c>
@@ -18442,7 +18431,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="453" spans="1:8">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
         <v>950</v>
       </c>
@@ -18468,7 +18457,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="454" spans="1:8">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454" s="4" t="s">
         <v>950</v>
       </c>
@@ -18494,7 +18483,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="455" spans="1:8">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
         <v>950</v>
       </c>
@@ -18520,7 +18509,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="456" spans="1:8">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456" s="4" t="s">
         <v>950</v>
       </c>
@@ -18546,7 +18535,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="457" spans="1:8">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
         <v>950</v>
       </c>
@@ -18572,7 +18561,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="458" spans="1:8">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" s="4" t="s">
         <v>950</v>
       </c>
@@ -18598,7 +18587,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="459" spans="1:8">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
         <v>950</v>
       </c>
@@ -18624,7 +18613,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="460" spans="1:8">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" s="4" t="s">
         <v>950</v>
       </c>
@@ -18650,7 +18639,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="461" spans="1:8">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
         <v>950</v>
       </c>
@@ -18676,7 +18665,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="462" spans="1:8">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462" s="4" t="s">
         <v>950</v>
       </c>
@@ -18702,7 +18691,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="463" spans="1:8">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
         <v>950</v>
       </c>
@@ -18728,7 +18717,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="464" spans="1:8">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464" s="4" t="s">
         <v>950</v>
       </c>
@@ -18754,7 +18743,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="465" spans="1:8">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
         <v>950</v>
       </c>
@@ -18780,7 +18769,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="466" spans="1:8">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466" s="4" t="s">
         <v>950</v>
       </c>
@@ -18806,7 +18795,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="467" spans="1:8">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
         <v>950</v>
       </c>
@@ -18832,7 +18821,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="468" spans="1:8">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468" s="4" t="s">
         <v>950</v>
       </c>
@@ -18858,7 +18847,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="469" spans="1:8">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
         <v>950</v>
       </c>
@@ -18884,7 +18873,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="470" spans="1:8">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470" s="4" t="s">
         <v>950</v>
       </c>
@@ -18910,7 +18899,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="471" spans="1:8">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
         <v>950</v>
       </c>
@@ -18936,7 +18925,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="472" spans="1:8">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472" s="4" t="s">
         <v>950</v>
       </c>
@@ -18962,7 +18951,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="473" spans="1:8">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
         <v>950</v>
       </c>
@@ -18988,7 +18977,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="474" spans="1:8">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474" s="4" t="s">
         <v>950</v>
       </c>
@@ -19014,7 +19003,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="475" spans="1:8">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
         <v>950</v>
       </c>
@@ -19040,7 +19029,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="476" spans="1:8">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476" s="4" t="s">
         <v>950</v>
       </c>
@@ -19066,7 +19055,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="477" spans="1:8">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
         <v>950</v>
       </c>
@@ -19092,7 +19081,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="478" spans="1:8">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478" s="4" t="s">
         <v>950</v>
       </c>
@@ -19118,7 +19107,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="479" spans="1:8">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
         <v>950</v>
       </c>
@@ -19144,7 +19133,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="480" spans="1:8">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480" s="4" t="s">
         <v>950</v>
       </c>
@@ -19170,7 +19159,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="481" spans="1:8">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
         <v>950</v>
       </c>
@@ -19196,7 +19185,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="482" spans="1:8">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482" s="4" t="s">
         <v>950</v>
       </c>
@@ -19222,7 +19211,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="483" spans="1:8">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
         <v>950</v>
       </c>
@@ -19248,7 +19237,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="484" spans="1:8">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484" s="4" t="s">
         <v>950</v>
       </c>
@@ -19274,7 +19263,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="485" spans="1:8">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
         <v>950</v>
       </c>
@@ -19300,7 +19289,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="486" spans="1:8">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486" s="4" t="s">
         <v>950</v>
       </c>
@@ -19326,7 +19315,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="487" spans="1:8">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
         <v>950</v>
       </c>
@@ -19352,7 +19341,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="488" spans="1:8">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488" s="4" t="s">
         <v>950</v>
       </c>
@@ -19378,7 +19367,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="489" spans="1:8">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
         <v>950</v>
       </c>
@@ -19404,7 +19393,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="490" spans="1:8">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490" s="4" t="s">
         <v>950</v>
       </c>
@@ -19430,7 +19419,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="491" spans="1:8">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
         <v>950</v>
       </c>
@@ -19456,7 +19445,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="492" spans="1:8">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A492" s="4" t="s">
         <v>950</v>
       </c>
@@ -19482,7 +19471,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="493" spans="1:8">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
         <v>950</v>
       </c>
@@ -19508,7 +19497,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="494" spans="1:8">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A494" s="4" t="s">
         <v>950</v>
       </c>
@@ -19534,7 +19523,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="495" spans="1:8">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
         <v>950</v>
       </c>
@@ -19560,7 +19549,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="496" spans="1:8">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A496" s="4" t="s">
         <v>950</v>
       </c>
@@ -19586,7 +19575,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="497" spans="1:8">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
         <v>950</v>
       </c>
@@ -19612,7 +19601,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="498" spans="1:8">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498" s="4" t="s">
         <v>1056</v>
       </c>
@@ -19638,7 +19627,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="499" spans="1:8">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
         <v>1056</v>
       </c>
@@ -19664,7 +19653,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="500" spans="1:8">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500" s="4" t="s">
         <v>1056</v>
       </c>
@@ -19690,7 +19679,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="501" spans="1:8">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
         <v>1064</v>
       </c>
@@ -19716,7 +19705,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="502" spans="1:8">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502" s="4" t="s">
         <v>1064</v>
       </c>
@@ -19742,7 +19731,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="503" spans="1:8">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
         <v>1064</v>
       </c>
@@ -19768,7 +19757,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="504" spans="1:8">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A504" s="4" t="s">
         <v>1064</v>
       </c>
@@ -19794,7 +19783,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="505" spans="1:8">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
         <v>1074</v>
       </c>
@@ -19820,7 +19809,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="506" spans="1:8">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506" s="4" t="s">
         <v>1074</v>
       </c>
@@ -19846,7 +19835,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="507" spans="1:8">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
         <v>1080</v>
       </c>
@@ -19872,7 +19861,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="508" spans="1:8">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A508" s="4" t="s">
         <v>1080</v>
       </c>
@@ -19898,7 +19887,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="509" spans="1:8">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
         <v>1080</v>
       </c>
@@ -19924,7 +19913,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="510" spans="1:8">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A510" s="4" t="s">
         <v>1080</v>
       </c>
@@ -19950,7 +19939,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="511" spans="1:8">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
         <v>1080</v>
       </c>
@@ -19976,7 +19965,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="512" spans="1:8">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512" s="4" t="s">
         <v>1092</v>
       </c>
@@ -20002,7 +19991,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="513" spans="1:8">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513" s="1" t="s">
         <v>1092</v>
       </c>
@@ -20028,7 +20017,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="514" spans="1:8">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514" s="4" t="s">
         <v>1092</v>
       </c>
@@ -20054,7 +20043,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="515" spans="1:8">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
         <v>1092</v>
       </c>
@@ -20080,7 +20069,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="516" spans="1:8">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516" s="4" t="s">
         <v>1102</v>
       </c>
@@ -20106,7 +20095,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="517" spans="1:8">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
         <v>1102</v>
       </c>
@@ -20132,7 +20121,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="518" spans="1:8">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518" s="4" t="s">
         <v>1102</v>
       </c>
@@ -20158,7 +20147,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="519" spans="1:8">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
         <v>1110</v>
       </c>
@@ -20184,7 +20173,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="520" spans="1:8">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520" s="4" t="s">
         <v>1110</v>
       </c>
@@ -20210,7 +20199,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="521" spans="1:8">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
         <v>1110</v>
       </c>
@@ -20236,7 +20225,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="522" spans="1:8">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522" s="4" t="s">
         <v>1110</v>
       </c>
@@ -20262,7 +20251,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="523" spans="1:8">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
         <v>1110</v>
       </c>
@@ -20288,7 +20277,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="524" spans="1:8">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A524" s="4" t="s">
         <v>1110</v>
       </c>
@@ -20314,7 +20303,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="525" spans="1:8">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
         <v>1110</v>
       </c>
@@ -20340,7 +20329,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="526" spans="1:8">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A526" s="4" t="s">
         <v>1110</v>
       </c>
@@ -20366,7 +20355,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="527" spans="1:8">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
         <v>1110</v>
       </c>
@@ -20392,7 +20381,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="528" spans="1:8">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528" s="4" t="s">
         <v>1110</v>
       </c>
@@ -20418,7 +20407,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="529" spans="1:8">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A529" s="1" t="s">
         <v>1110</v>
       </c>
@@ -20444,7 +20433,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="530" spans="1:8">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A530" s="4" t="s">
         <v>1110</v>
       </c>
@@ -20470,7 +20459,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="531" spans="1:8">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A531" s="1" t="s">
         <v>1110</v>
       </c>
@@ -20496,7 +20485,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="532" spans="1:8">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A532" s="4" t="s">
         <v>1110</v>
       </c>
@@ -20522,7 +20511,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="533" spans="1:8">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A533" s="1" t="s">
         <v>1110</v>
       </c>
@@ -20548,7 +20537,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="534" spans="1:8">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A534" s="4" t="s">
         <v>1110</v>
       </c>
@@ -20574,7 +20563,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="535" spans="1:8">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535" s="1" t="s">
         <v>1110</v>
       </c>
@@ -20600,7 +20589,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="536" spans="1:8">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A536" s="4" t="s">
         <v>1110</v>
       </c>
@@ -20626,7 +20615,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="537" spans="1:8">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A537" s="1" t="s">
         <v>1110</v>
       </c>
@@ -20652,7 +20641,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="538" spans="1:8">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A538" s="4" t="s">
         <v>1110</v>
       </c>
@@ -20678,7 +20667,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="539" spans="1:8">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A539" s="1" t="s">
         <v>1110</v>
       </c>
@@ -20704,7 +20693,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="540" spans="1:8">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A540" s="4" t="s">
         <v>1110</v>
       </c>
@@ -20730,7 +20719,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="541" spans="1:8">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A541" s="1" t="s">
         <v>1110</v>
       </c>
@@ -20756,7 +20745,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="542" spans="1:8">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A542" s="4" t="s">
         <v>1110</v>
       </c>
@@ -20782,7 +20771,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="543" spans="1:8">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A543" s="1" t="s">
         <v>1110</v>
       </c>
@@ -20808,7 +20797,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="544" spans="1:8">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A544" s="4" t="s">
         <v>1110</v>
       </c>
@@ -20834,7 +20823,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="545" spans="1:8">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A545" s="1" t="s">
         <v>1110</v>
       </c>
@@ -20860,7 +20849,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="546" spans="1:8">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A546" s="4" t="s">
         <v>1110</v>
       </c>
@@ -20886,7 +20875,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="547" spans="1:8">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A547" s="1" t="s">
         <v>1110</v>
       </c>
@@ -20912,7 +20901,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="548" spans="1:8">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A548" s="4" t="s">
         <v>1110</v>
       </c>
@@ -20938,7 +20927,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="549" spans="1:8">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A549" s="1" t="s">
         <v>1110</v>
       </c>
@@ -20964,7 +20953,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="550" spans="1:8">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A550" s="4" t="s">
         <v>1110</v>
       </c>
@@ -20990,7 +20979,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="551" spans="1:8">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A551" s="1" t="s">
         <v>1110</v>
       </c>
@@ -21016,7 +21005,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="552" spans="1:8">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A552" s="4" t="s">
         <v>1110</v>
       </c>
@@ -21042,7 +21031,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="553" spans="1:8">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A553" s="1" t="s">
         <v>1110</v>
       </c>
@@ -21068,7 +21057,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="554" spans="1:8">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A554" s="4" t="s">
         <v>1110</v>
       </c>
@@ -21094,7 +21083,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="555" spans="1:8">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A555" s="1" t="s">
         <v>1110</v>
       </c>
@@ -21120,7 +21109,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="556" spans="1:8">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A556" s="4" t="s">
         <v>1110</v>
       </c>
@@ -21146,7 +21135,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="557" spans="1:8">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A557" s="1" t="s">
         <v>1110</v>
       </c>
@@ -21172,7 +21161,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="558" spans="1:8">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A558" s="4" t="s">
         <v>1110</v>
       </c>
@@ -21198,7 +21187,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="559" spans="1:8">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A559" s="1" t="s">
         <v>1110</v>
       </c>
@@ -21224,7 +21213,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="560" spans="1:8">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A560" s="4" t="s">
         <v>1110</v>
       </c>
@@ -21250,7 +21239,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="561" spans="1:8">
+    <row r="561" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A561" s="1" t="s">
         <v>1110</v>
       </c>
@@ -21276,7 +21265,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="562" spans="1:8">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A562" s="4" t="s">
         <v>1110</v>
       </c>
@@ -21302,7 +21291,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="563" spans="1:8">
+    <row r="563" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A563" s="1" t="s">
         <v>1110</v>
       </c>
@@ -21328,7 +21317,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="564" spans="1:8">
+    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A564" s="4" t="s">
         <v>1110</v>
       </c>
@@ -21354,7 +21343,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="565" spans="1:8">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A565" s="1" t="s">
         <v>1110</v>
       </c>
@@ -21380,7 +21369,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="566" spans="1:8">
+    <row r="566" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A566" s="4" t="s">
         <v>1110</v>
       </c>
@@ -21406,7 +21395,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="567" spans="1:8">
+    <row r="567" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A567" s="1" t="s">
         <v>1110</v>
       </c>
@@ -21432,7 +21421,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="568" spans="1:8">
+    <row r="568" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A568" s="4" t="s">
         <v>1110</v>
       </c>
@@ -21458,7 +21447,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="569" spans="1:8">
+    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A569" s="1" t="s">
         <v>1110</v>
       </c>
@@ -21484,7 +21473,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="570" spans="1:8">
+    <row r="570" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A570" s="4" t="s">
         <v>1110</v>
       </c>
@@ -21510,7 +21499,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="571" spans="1:8">
+    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A571" s="1" t="s">
         <v>1110</v>
       </c>
@@ -21536,7 +21525,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="572" spans="1:8">
+    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A572" s="4" t="s">
         <v>1110</v>
       </c>
@@ -21562,7 +21551,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="573" spans="1:8">
+    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A573" s="1" t="s">
         <v>1110</v>
       </c>
@@ -21588,7 +21577,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="574" spans="1:8">
+    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A574" s="4" t="s">
         <v>1110</v>
       </c>
@@ -21614,7 +21603,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="575" spans="1:8">
+    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A575" s="1" t="s">
         <v>1110</v>
       </c>
@@ -21640,7 +21629,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="576" spans="1:8">
+    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A576" s="4" t="s">
         <v>1110</v>
       </c>
@@ -21666,7 +21655,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="577" spans="1:8">
+    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A577" s="1" t="s">
         <v>1110</v>
       </c>
@@ -21692,7 +21681,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="578" spans="1:8">
+    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A578" s="4" t="s">
         <v>1110</v>
       </c>
@@ -21718,7 +21707,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="579" spans="1:8">
+    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A579" s="1" t="s">
         <v>1110</v>
       </c>
@@ -21744,7 +21733,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="580" spans="1:8">
+    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A580" s="4" t="s">
         <v>1110</v>
       </c>
@@ -21770,7 +21759,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="581" spans="1:8">
+    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A581" s="1" t="s">
         <v>1110</v>
       </c>
@@ -21796,7 +21785,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="582" spans="1:8">
+    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A582" s="4" t="s">
         <v>1110</v>
       </c>
@@ -21822,7 +21811,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="583" spans="1:8">
+    <row r="583" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A583" s="1" t="s">
         <v>1110</v>
       </c>
@@ -21848,7 +21837,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="584" spans="1:8">
+    <row r="584" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A584" s="4" t="s">
         <v>1110</v>
       </c>
@@ -21874,7 +21863,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="585" spans="1:8">
+    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A585" s="1" t="s">
         <v>1110</v>
       </c>
@@ -21900,7 +21889,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="586" spans="1:8">
+    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A586" s="4" t="s">
         <v>1110</v>
       </c>
@@ -21926,7 +21915,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="587" spans="1:8">
+    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A587" s="1" t="s">
         <v>1110</v>
       </c>
@@ -21952,7 +21941,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="588" spans="1:8">
+    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A588" s="4" t="s">
         <v>1110</v>
       </c>
@@ -21978,7 +21967,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="589" spans="1:8">
+    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A589" s="1" t="s">
         <v>1110</v>
       </c>
@@ -22004,7 +21993,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="590" spans="1:8">
+    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A590" s="4" t="s">
         <v>1110</v>
       </c>
@@ -22030,7 +22019,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="591" spans="1:8">
+    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A591" s="1" t="s">
         <v>1110</v>
       </c>
@@ -22056,7 +22045,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="592" spans="1:8">
+    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A592" s="4" t="s">
         <v>1110</v>
       </c>
@@ -22082,7 +22071,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="593" spans="1:8">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A593" s="1" t="s">
         <v>1110</v>
       </c>
@@ -22108,7 +22097,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="594" spans="1:8">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A594" s="4" t="s">
         <v>1110</v>
       </c>
@@ -22134,7 +22123,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="595" spans="1:8">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A595" s="1" t="s">
         <v>1110</v>
       </c>
@@ -22160,7 +22149,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="596" spans="1:8">
+    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A596" s="4" t="s">
         <v>1110</v>
       </c>
@@ -22186,7 +22175,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="597" spans="1:8">
+    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A597" s="1" t="s">
         <v>1110</v>
       </c>
@@ -22212,7 +22201,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="598" spans="1:8">
+    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A598" s="4" t="s">
         <v>1110</v>
       </c>
@@ -22238,7 +22227,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="599" spans="1:8">
+    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A599" s="1" t="s">
         <v>1110</v>
       </c>
@@ -22264,7 +22253,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="600" spans="1:8">
+    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A600" s="4" t="s">
         <v>1110</v>
       </c>
@@ -22290,7 +22279,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="601" spans="1:8">
+    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A601" s="1" t="s">
         <v>1110</v>
       </c>
@@ -22316,7 +22305,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="602" spans="1:8">
+    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A602" s="4" t="s">
         <v>1110</v>
       </c>
@@ -22342,7 +22331,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="603" spans="1:8">
+    <row r="603" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A603" s="1" t="s">
         <v>1110</v>
       </c>
@@ -22368,7 +22357,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="604" spans="1:8">
+    <row r="604" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A604" s="4" t="s">
         <v>1110</v>
       </c>
@@ -22394,7 +22383,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="605" spans="1:8">
+    <row r="605" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A605" s="1" t="s">
         <v>1110</v>
       </c>
@@ -22420,7 +22409,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="606" spans="1:8">
+    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A606" s="4" t="s">
         <v>1110</v>
       </c>
@@ -22446,7 +22435,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="607" spans="1:8">
+    <row r="607" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A607" s="1" t="s">
         <v>1110</v>
       </c>
@@ -22472,7 +22461,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="608" spans="1:8">
+    <row r="608" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A608" s="4" t="s">
         <v>1110</v>
       </c>
@@ -22498,7 +22487,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="609" spans="1:8">
+    <row r="609" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A609" s="1" t="s">
         <v>1110</v>
       </c>
@@ -22524,7 +22513,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="610" spans="1:8">
+    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A610" s="4" t="s">
         <v>1110</v>
       </c>
@@ -22550,7 +22539,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="611" spans="1:8">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A611" s="1" t="s">
         <v>1110</v>
       </c>
@@ -22576,7 +22565,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="612" spans="1:8">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A612" s="4" t="s">
         <v>1110</v>
       </c>
@@ -22602,7 +22591,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="613" spans="1:8">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A613" s="1" t="s">
         <v>1110</v>
       </c>
@@ -22628,7 +22617,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="614" spans="1:8">
+    <row r="614" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A614" s="4" t="s">
         <v>1110</v>
       </c>
@@ -22654,7 +22643,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="615" spans="1:8">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A615" s="1" t="s">
         <v>1110</v>
       </c>
@@ -22680,7 +22669,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="616" spans="1:8">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A616" s="4" t="s">
         <v>1110</v>
       </c>
@@ -22706,7 +22695,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="617" spans="1:8">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A617" s="1" t="s">
         <v>1110</v>
       </c>
@@ -22732,7 +22721,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="618" spans="1:8">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A618" s="4" t="s">
         <v>1110</v>
       </c>
@@ -22758,7 +22747,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="619" spans="1:8">
+    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A619" s="1" t="s">
         <v>1110</v>
       </c>
@@ -22784,7 +22773,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="620" spans="1:8">
+    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A620" s="4" t="s">
         <v>1110</v>
       </c>
@@ -22810,7 +22799,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="621" spans="1:8">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A621" s="1" t="s">
         <v>1110</v>
       </c>
@@ -22836,7 +22825,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="622" spans="1:8">
+    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A622" s="4" t="s">
         <v>1110</v>
       </c>
@@ -22862,7 +22851,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="623" spans="1:8">
+    <row r="623" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A623" s="1" t="s">
         <v>1110</v>
       </c>
@@ -22888,7 +22877,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="624" spans="1:8">
+    <row r="624" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A624" s="4" t="s">
         <v>1110</v>
       </c>
@@ -22914,7 +22903,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="625" spans="1:8">
+    <row r="625" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A625" s="1" t="s">
         <v>1110</v>
       </c>
@@ -22940,7 +22929,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="626" spans="1:8">
+    <row r="626" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A626" s="4" t="s">
         <v>1110</v>
       </c>
@@ -22966,7 +22955,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="627" spans="1:8">
+    <row r="627" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A627" s="1" t="s">
         <v>1110</v>
       </c>
@@ -22992,7 +22981,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="628" spans="1:8">
+    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A628" s="4" t="s">
         <v>1110</v>
       </c>
@@ -23018,7 +23007,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="629" spans="1:8">
+    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A629" s="1" t="s">
         <v>1110</v>
       </c>
@@ -23044,7 +23033,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="630" spans="1:8">
+    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A630" s="4" t="s">
         <v>1110</v>
       </c>
@@ -23070,7 +23059,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="631" spans="1:8">
+    <row r="631" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A631" s="1" t="s">
         <v>1110</v>
       </c>
@@ -23096,7 +23085,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="632" spans="1:8">
+    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A632" s="4" t="s">
         <v>1110</v>
       </c>
@@ -23122,7 +23111,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="633" spans="1:8">
+    <row r="633" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A633" s="1" t="s">
         <v>1110</v>
       </c>
@@ -23148,7 +23137,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="634" spans="1:8">
+    <row r="634" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A634" s="4" t="s">
         <v>1110</v>
       </c>
@@ -23174,7 +23163,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="635" spans="1:8">
+    <row r="635" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A635" s="1" t="s">
         <v>1110</v>
       </c>
@@ -23200,7 +23189,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="636" spans="1:8">
+    <row r="636" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A636" s="4" t="s">
         <v>1110</v>
       </c>
@@ -23226,7 +23215,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="637" spans="1:8">
+    <row r="637" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A637" s="1" t="s">
         <v>1110</v>
       </c>
@@ -23252,7 +23241,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="638" spans="1:8">
+    <row r="638" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A638" s="4" t="s">
         <v>1110</v>
       </c>
@@ -23278,7 +23267,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="639" spans="1:8">
+    <row r="639" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A639" s="1" t="s">
         <v>1110</v>
       </c>
@@ -23304,7 +23293,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="640" spans="1:8">
+    <row r="640" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A640" s="4" t="s">
         <v>1110</v>
       </c>
@@ -23330,7 +23319,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="641" spans="1:8">
+    <row r="641" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A641" s="1" t="s">
         <v>1110</v>
       </c>
@@ -23356,7 +23345,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="642" spans="1:8">
+    <row r="642" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A642" s="4" t="s">
         <v>1110</v>
       </c>
@@ -23382,7 +23371,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="643" spans="1:8">
+    <row r="643" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A643" s="1" t="s">
         <v>1110</v>
       </c>
@@ -23408,7 +23397,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="644" spans="1:8">
+    <row r="644" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A644" s="4" t="s">
         <v>1110</v>
       </c>
@@ -23434,7 +23423,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="645" spans="1:8">
+    <row r="645" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A645" s="1" t="s">
         <v>1110</v>
       </c>
@@ -23460,7 +23449,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="646" spans="1:8">
+    <row r="646" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A646" s="4" t="s">
         <v>1110</v>
       </c>
@@ -23486,7 +23475,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="647" spans="1:8">
+    <row r="647" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A647" s="1" t="s">
         <v>1110</v>
       </c>
@@ -23512,7 +23501,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="648" spans="1:8">
+    <row r="648" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A648" s="4" t="s">
         <v>1110</v>
       </c>
@@ -23538,7 +23527,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="649" spans="1:8">
+    <row r="649" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A649" s="1" t="s">
         <v>1110</v>
       </c>
@@ -23564,7 +23553,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="650" spans="1:8">
+    <row r="650" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A650" s="4" t="s">
         <v>1110</v>
       </c>
@@ -23590,7 +23579,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="651" spans="1:8">
+    <row r="651" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A651" s="1" t="s">
         <v>1110</v>
       </c>
@@ -23616,7 +23605,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="652" spans="1:8">
+    <row r="652" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A652" s="4" t="s">
         <v>1110</v>
       </c>
@@ -23642,7 +23631,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="653" spans="1:8">
+    <row r="653" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A653" s="1" t="s">
         <v>1110</v>
       </c>
@@ -23668,7 +23657,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="654" spans="1:8">
+    <row r="654" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A654" s="4" t="s">
         <v>1110</v>
       </c>
@@ -23694,7 +23683,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="655" spans="1:8">
+    <row r="655" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A655" s="1" t="s">
         <v>1110</v>
       </c>
@@ -23720,7 +23709,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="656" spans="1:8">
+    <row r="656" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A656" s="4" t="s">
         <v>1110</v>
       </c>
@@ -23746,7 +23735,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="657" spans="1:8">
+    <row r="657" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A657" s="1" t="s">
         <v>1110</v>
       </c>
@@ -23772,7 +23761,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="658" spans="1:8">
+    <row r="658" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A658" s="4" t="s">
         <v>1110</v>
       </c>
@@ -23798,7 +23787,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="659" spans="1:8">
+    <row r="659" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A659" s="1" t="s">
         <v>1110</v>
       </c>
@@ -23824,7 +23813,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="660" spans="1:8">
+    <row r="660" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A660" s="4" t="s">
         <v>1110</v>
       </c>
@@ -23850,7 +23839,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="661" spans="1:8">
+    <row r="661" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A661" s="1" t="s">
         <v>1110</v>
       </c>
@@ -23876,7 +23865,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="662" spans="1:8">
+    <row r="662" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A662" s="4" t="s">
         <v>1110</v>
       </c>
@@ -23902,7 +23891,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="663" spans="1:8">
+    <row r="663" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A663" s="1" t="s">
         <v>1110</v>
       </c>
@@ -23928,7 +23917,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="664" spans="1:8">
+    <row r="664" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A664" s="4" t="s">
         <v>1110</v>
       </c>
@@ -23954,7 +23943,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="665" spans="1:8">
+    <row r="665" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A665" s="1" t="s">
         <v>1110</v>
       </c>
@@ -23980,7 +23969,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="666" spans="1:8">
+    <row r="666" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A666" s="4" t="s">
         <v>1110</v>
       </c>
@@ -24006,7 +23995,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="667" spans="1:8">
+    <row r="667" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A667" s="1" t="s">
         <v>1110</v>
       </c>
@@ -24032,7 +24021,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="668" spans="1:8">
+    <row r="668" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A668" s="4" t="s">
         <v>1110</v>
       </c>
@@ -24058,7 +24047,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="669" spans="1:8">
+    <row r="669" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A669" s="1" t="s">
         <v>1110</v>
       </c>
@@ -24084,7 +24073,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="670" spans="1:8">
+    <row r="670" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A670" s="4" t="s">
         <v>1110</v>
       </c>
@@ -24110,7 +24099,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="671" spans="1:8">
+    <row r="671" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A671" s="1" t="s">
         <v>1110</v>
       </c>
@@ -24136,7 +24125,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="672" spans="1:8">
+    <row r="672" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A672" s="4" t="s">
         <v>1110</v>
       </c>
@@ -24162,7 +24151,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="673" spans="1:8">
+    <row r="673" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A673" s="1" t="s">
         <v>1110</v>
       </c>
@@ -24188,7 +24177,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="674" spans="1:8">
+    <row r="674" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A674" s="4" t="s">
         <v>1110</v>
       </c>
@@ -24214,7 +24203,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="675" spans="1:8">
+    <row r="675" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A675" s="1" t="s">
         <v>1110</v>
       </c>
@@ -24240,7 +24229,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="676" spans="1:8">
+    <row r="676" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A676" s="4" t="s">
         <v>1110</v>
       </c>
@@ -24266,7 +24255,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="677" spans="1:8">
+    <row r="677" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A677" s="1" t="s">
         <v>1110</v>
       </c>
@@ -24292,7 +24281,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="678" spans="1:8">
+    <row r="678" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A678" s="4" t="s">
         <v>1110</v>
       </c>
@@ -24318,7 +24307,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="679" spans="1:8">
+    <row r="679" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A679" s="1" t="s">
         <v>1110</v>
       </c>
@@ -24344,7 +24333,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="680" spans="1:8">
+    <row r="680" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A680" s="4" t="s">
         <v>1110</v>
       </c>
@@ -24370,7 +24359,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="681" spans="1:8">
+    <row r="681" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A681" s="1" t="s">
         <v>1110</v>
       </c>
@@ -24396,7 +24385,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="682" spans="1:8">
+    <row r="682" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A682" s="4" t="s">
         <v>1110</v>
       </c>
@@ -24422,7 +24411,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="683" spans="1:8">
+    <row r="683" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A683" s="1" t="s">
         <v>1110</v>
       </c>
@@ -24448,7 +24437,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="684" spans="1:8">
+    <row r="684" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A684" s="4" t="s">
         <v>1110</v>
       </c>
@@ -24474,7 +24463,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="685" spans="1:8">
+    <row r="685" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A685" s="1" t="s">
         <v>1110</v>
       </c>
@@ -24500,7 +24489,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="686" spans="1:8">
+    <row r="686" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A686" s="4" t="s">
         <v>1110</v>
       </c>
@@ -24526,7 +24515,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="687" spans="1:8">
+    <row r="687" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A687" s="1" t="s">
         <v>1110</v>
       </c>
@@ -24552,7 +24541,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="688" spans="1:8">
+    <row r="688" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A688" s="4" t="s">
         <v>1110</v>
       </c>
@@ -24578,7 +24567,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="689" spans="1:8">
+    <row r="689" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A689" s="1" t="s">
         <v>1110</v>
       </c>
@@ -24604,7 +24593,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="690" spans="1:8">
+    <row r="690" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A690" s="4" t="s">
         <v>1110</v>
       </c>
@@ -24630,7 +24619,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="691" spans="1:8">
+    <row r="691" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A691" s="1" t="s">
         <v>1110</v>
       </c>
@@ -24656,7 +24645,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="692" spans="1:8">
+    <row r="692" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A692" s="4" t="s">
         <v>1110</v>
       </c>
@@ -24682,7 +24671,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="693" spans="1:8">
+    <row r="693" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A693" s="1" t="s">
         <v>1110</v>
       </c>
@@ -24708,7 +24697,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="694" spans="1:8">
+    <row r="694" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A694" s="4" t="s">
         <v>1110</v>
       </c>
@@ -24734,7 +24723,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="695" spans="1:8">
+    <row r="695" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A695" s="1" t="s">
         <v>1110</v>
       </c>
@@ -24760,7 +24749,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="696" spans="1:8">
+    <row r="696" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A696" s="4" t="s">
         <v>1110</v>
       </c>
@@ -24786,7 +24775,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="697" spans="1:8">
+    <row r="697" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A697" s="1" t="s">
         <v>1110</v>
       </c>
@@ -24812,7 +24801,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="698" spans="1:8">
+    <row r="698" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A698" s="4" t="s">
         <v>1110</v>
       </c>
@@ -24838,7 +24827,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="699" spans="1:8">
+    <row r="699" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A699" s="1" t="s">
         <v>1110</v>
       </c>
@@ -24864,7 +24853,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="700" spans="1:8">
+    <row r="700" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A700" s="4" t="s">
         <v>1110</v>
       </c>
@@ -24890,7 +24879,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="701" spans="1:8">
+    <row r="701" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A701" s="1" t="s">
         <v>1110</v>
       </c>
@@ -24916,7 +24905,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="702" spans="1:8">
+    <row r="702" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A702" s="4" t="s">
         <v>1110</v>
       </c>
@@ -24942,7 +24931,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="703" spans="1:8">
+    <row r="703" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A703" s="1" t="s">
         <v>1110</v>
       </c>
@@ -24968,7 +24957,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="704" spans="1:8">
+    <row r="704" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A704" s="4" t="s">
         <v>1110</v>
       </c>
@@ -24994,7 +24983,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="705" spans="1:8">
+    <row r="705" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A705" s="1" t="s">
         <v>1110</v>
       </c>
@@ -25020,7 +25009,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="706" spans="1:8">
+    <row r="706" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A706" s="4" t="s">
         <v>1110</v>
       </c>
@@ -25046,7 +25035,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="707" spans="1:8">
+    <row r="707" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A707" s="1" t="s">
         <v>1110</v>
       </c>
@@ -25072,7 +25061,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="708" spans="1:8">
+    <row r="708" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A708" s="4" t="s">
         <v>1110</v>
       </c>
@@ -25098,7 +25087,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="709" spans="1:8">
+    <row r="709" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A709" s="1" t="s">
         <v>1110</v>
       </c>
@@ -25124,7 +25113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="710" spans="1:8">
+    <row r="710" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A710" s="4" t="s">
         <v>1110</v>
       </c>
@@ -25150,7 +25139,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="711" spans="1:8">
+    <row r="711" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A711" s="1" t="s">
         <v>1110</v>
       </c>
@@ -25176,7 +25165,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="712" spans="1:8">
+    <row r="712" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A712" s="4" t="s">
         <v>1110</v>
       </c>
@@ -25202,7 +25191,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="713" spans="1:8">
+    <row r="713" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A713" s="1" t="s">
         <v>1110</v>
       </c>
@@ -25228,7 +25217,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="714" spans="1:8">
+    <row r="714" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A714" s="4" t="s">
         <v>1110</v>
       </c>
@@ -25254,7 +25243,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="715" spans="1:8">
+    <row r="715" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A715" s="1" t="s">
         <v>1110</v>
       </c>
@@ -25280,7 +25269,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="716" spans="1:8">
+    <row r="716" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A716" s="4" t="s">
         <v>1110</v>
       </c>
@@ -25306,7 +25295,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="717" spans="1:8">
+    <row r="717" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A717" s="1" t="s">
         <v>1110</v>
       </c>
@@ -25332,7 +25321,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="718" spans="1:8">
+    <row r="718" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A718" s="4" t="s">
         <v>1110</v>
       </c>
@@ -25358,7 +25347,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="719" spans="1:8">
+    <row r="719" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A719" s="1" t="s">
         <v>1110</v>
       </c>
@@ -25384,7 +25373,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="720" spans="1:8">
+    <row r="720" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A720" s="4" t="s">
         <v>1110</v>
       </c>
@@ -25410,7 +25399,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="721" spans="1:8">
+    <row r="721" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A721" s="1" t="s">
         <v>1110</v>
       </c>
@@ -25436,7 +25425,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="722" spans="1:8">
+    <row r="722" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A722" s="4" t="s">
         <v>1110</v>
       </c>
@@ -25462,7 +25451,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="723" spans="1:8">
+    <row r="723" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A723" s="1" t="s">
         <v>1110</v>
       </c>
@@ -25488,7 +25477,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="724" spans="1:8">
+    <row r="724" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A724" s="4" t="s">
         <v>1110</v>
       </c>
@@ -25514,7 +25503,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="725" spans="1:8">
+    <row r="725" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A725" s="1" t="s">
         <v>1110</v>
       </c>
@@ -25540,7 +25529,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="726" spans="1:8">
+    <row r="726" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A726" s="4" t="s">
         <v>1110</v>
       </c>
@@ -25566,7 +25555,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="727" spans="1:8">
+    <row r="727" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A727" s="1" t="s">
         <v>1110</v>
       </c>
@@ -25592,7 +25581,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="728" spans="1:8">
+    <row r="728" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A728" s="4" t="s">
         <v>1110</v>
       </c>
@@ -25618,7 +25607,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="729" spans="1:8">
+    <row r="729" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A729" s="1" t="s">
         <v>1110</v>
       </c>
@@ -25644,7 +25633,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="730" spans="1:8">
+    <row r="730" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A730" s="4" t="s">
         <v>1110</v>
       </c>
@@ -25670,7 +25659,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="731" spans="1:8">
+    <row r="731" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A731" s="1" t="s">
         <v>1110</v>
       </c>
@@ -25696,7 +25685,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="732" spans="1:8">
+    <row r="732" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A732" s="4" t="s">
         <v>1110</v>
       </c>
@@ -25722,7 +25711,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="733" spans="1:8">
+    <row r="733" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A733" s="1" t="s">
         <v>1110</v>
       </c>
@@ -25748,7 +25737,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="734" spans="1:8">
+    <row r="734" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A734" s="4" t="s">
         <v>1110</v>
       </c>
@@ -25774,7 +25763,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="735" spans="1:8">
+    <row r="735" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A735" s="1" t="s">
         <v>1110</v>
       </c>
@@ -25800,7 +25789,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="736" spans="1:8">
+    <row r="736" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A736" s="4" t="s">
         <v>1110</v>
       </c>
@@ -25826,7 +25815,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="737" spans="1:8">
+    <row r="737" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A737" s="1" t="s">
         <v>1110</v>
       </c>
@@ -25852,7 +25841,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="738" spans="1:8">
+    <row r="738" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A738" s="4" t="s">
         <v>1110</v>
       </c>
@@ -25878,7 +25867,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="739" spans="1:8">
+    <row r="739" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A739" s="1" t="s">
         <v>1110</v>
       </c>
@@ -25904,7 +25893,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="740" spans="1:8">
+    <row r="740" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A740" s="4" t="s">
         <v>1110</v>
       </c>
@@ -25930,7 +25919,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="741" spans="1:8">
+    <row r="741" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A741" s="1" t="s">
         <v>1110</v>
       </c>
@@ -25956,7 +25945,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="742" spans="1:8">
+    <row r="742" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A742" s="4" t="s">
         <v>1110</v>
       </c>
@@ -25982,7 +25971,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="743" spans="1:8">
+    <row r="743" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A743" s="1" t="s">
         <v>1110</v>
       </c>
@@ -26008,7 +25997,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="744" spans="1:8">
+    <row r="744" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A744" s="4" t="s">
         <v>1110</v>
       </c>
@@ -26034,7 +26023,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="745" spans="1:8">
+    <row r="745" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A745" s="1" t="s">
         <v>1110</v>
       </c>
@@ -26060,7 +26049,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="746" spans="1:8">
+    <row r="746" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A746" s="4" t="s">
         <v>1110</v>
       </c>
@@ -26086,7 +26075,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="747" spans="1:8">
+    <row r="747" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A747" s="1" t="s">
         <v>1110</v>
       </c>
@@ -26112,7 +26101,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="748" spans="1:8">
+    <row r="748" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A748" s="4" t="s">
         <v>1110</v>
       </c>
@@ -26138,7 +26127,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="749" spans="1:8">
+    <row r="749" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A749" s="1" t="s">
         <v>1110</v>
       </c>
@@ -26164,7 +26153,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="750" spans="1:8">
+    <row r="750" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A750" s="4" t="s">
         <v>1110</v>
       </c>
@@ -26190,7 +26179,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="751" spans="1:8">
+    <row r="751" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A751" s="1" t="s">
         <v>1110</v>
       </c>
@@ -26216,7 +26205,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="752" spans="1:8">
+    <row r="752" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A752" s="4" t="s">
         <v>1110</v>
       </c>
@@ -26242,7 +26231,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="753" spans="1:8">
+    <row r="753" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A753" s="1" t="s">
         <v>1110</v>
       </c>
@@ -26268,7 +26257,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="754" spans="1:8">
+    <row r="754" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A754" s="4" t="s">
         <v>1110</v>
       </c>
@@ -26294,7 +26283,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="755" spans="1:8">
+    <row r="755" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A755" s="1" t="s">
         <v>1110</v>
       </c>
@@ -26320,7 +26309,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="756" spans="1:8">
+    <row r="756" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A756" s="4" t="s">
         <v>1110</v>
       </c>
@@ -26346,7 +26335,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="757" spans="1:8">
+    <row r="757" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A757" s="1" t="s">
         <v>1110</v>
       </c>
@@ -26372,7 +26361,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="758" spans="1:8">
+    <row r="758" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A758" s="4" t="s">
         <v>1110</v>
       </c>
@@ -26398,7 +26387,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="759" spans="1:8">
+    <row r="759" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A759" s="1" t="s">
         <v>1110</v>
       </c>
@@ -26424,7 +26413,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="760" spans="1:8">
+    <row r="760" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A760" s="4" t="s">
         <v>1110</v>
       </c>
@@ -26450,7 +26439,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="761" spans="1:8">
+    <row r="761" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A761" s="1" t="s">
         <v>1110</v>
       </c>
@@ -26476,7 +26465,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="762" spans="1:8">
+    <row r="762" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A762" s="4" t="s">
         <v>1110</v>
       </c>
@@ -26502,7 +26491,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="763" spans="1:8">
+    <row r="763" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A763" s="1" t="s">
         <v>1110</v>
       </c>
@@ -26528,7 +26517,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="764" spans="1:8">
+    <row r="764" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A764" s="4" t="s">
         <v>1110</v>
       </c>
@@ -26554,7 +26543,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="765" spans="1:8">
+    <row r="765" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A765" s="1" t="s">
         <v>1110</v>
       </c>
@@ -26580,7 +26569,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="766" spans="1:8">
+    <row r="766" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A766" s="4" t="s">
         <v>1110</v>
       </c>
@@ -26606,7 +26595,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="767" spans="1:8">
+    <row r="767" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A767" s="1" t="s">
         <v>1110</v>
       </c>
@@ -26632,7 +26621,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="768" spans="1:8">
+    <row r="768" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A768" s="4" t="s">
         <v>1110</v>
       </c>
@@ -26658,7 +26647,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="769" spans="1:8">
+    <row r="769" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A769" s="1" t="s">
         <v>1110</v>
       </c>
@@ -26684,7 +26673,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="770" spans="1:8">
+    <row r="770" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A770" s="4" t="s">
         <v>1110</v>
       </c>
@@ -26710,7 +26699,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="771" spans="1:8">
+    <row r="771" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A771" s="1" t="s">
         <v>1110</v>
       </c>
@@ -26736,7 +26725,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="772" spans="1:8">
+    <row r="772" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A772" s="4" t="s">
         <v>1110</v>
       </c>
@@ -26762,7 +26751,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="773" spans="1:8">
+    <row r="773" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A773" s="1" t="s">
         <v>1110</v>
       </c>
@@ -26788,7 +26777,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="774" spans="1:8">
+    <row r="774" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A774" s="4" t="s">
         <v>1110</v>
       </c>
@@ -26814,7 +26803,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="775" spans="1:8">
+    <row r="775" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A775" s="1" t="s">
         <v>1110</v>
       </c>
@@ -26840,7 +26829,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="776" spans="1:8">
+    <row r="776" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A776" s="4" t="s">
         <v>1110</v>
       </c>
@@ -26866,7 +26855,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="777" spans="1:8">
+    <row r="777" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A777" s="1" t="s">
         <v>1110</v>
       </c>
@@ -26892,7 +26881,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="778" spans="1:8">
+    <row r="778" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A778" s="4" t="s">
         <v>1110</v>
       </c>
@@ -26918,7 +26907,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="779" spans="1:8">
+    <row r="779" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A779" s="1" t="s">
         <v>1110</v>
       </c>
@@ -26944,7 +26933,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="780" spans="1:8">
+    <row r="780" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A780" s="4" t="s">
         <v>1110</v>
       </c>
@@ -26970,7 +26959,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="781" spans="1:8">
+    <row r="781" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A781" s="1" t="s">
         <v>1110</v>
       </c>
@@ -26996,7 +26985,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="782" spans="1:8">
+    <row r="782" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A782" s="4" t="s">
         <v>1110</v>
       </c>
@@ -27022,7 +27011,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="783" spans="1:8">
+    <row r="783" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A783" s="1" t="s">
         <v>1110</v>
       </c>
@@ -27048,7 +27037,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="784" spans="1:8">
+    <row r="784" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A784" s="4" t="s">
         <v>1110</v>
       </c>
@@ -27074,7 +27063,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="785" spans="1:8">
+    <row r="785" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A785" s="1" t="s">
         <v>1110</v>
       </c>
@@ -27100,7 +27089,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="786" spans="1:8">
+    <row r="786" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A786" s="4" t="s">
         <v>1110</v>
       </c>
@@ -27126,7 +27115,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="787" spans="1:8">
+    <row r="787" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A787" s="1" t="s">
         <v>1110</v>
       </c>
@@ -27152,7 +27141,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="788" spans="1:8">
+    <row r="788" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A788" s="4" t="s">
         <v>1110</v>
       </c>
@@ -27178,7 +27167,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="789" spans="1:8">
+    <row r="789" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A789" s="1" t="s">
         <v>1110</v>
       </c>
@@ -27204,7 +27193,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="790" spans="1:8">
+    <row r="790" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A790" s="4" t="s">
         <v>1110</v>
       </c>
@@ -27230,7 +27219,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="791" spans="1:8">
+    <row r="791" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A791" s="1" t="s">
         <v>1110</v>
       </c>
@@ -27256,7 +27245,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="792" spans="1:8">
+    <row r="792" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A792" s="4" t="s">
         <v>1110</v>
       </c>
@@ -27282,7 +27271,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="793" spans="1:8">
+    <row r="793" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A793" s="1" t="s">
         <v>1110</v>
       </c>
@@ -27308,7 +27297,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="794" spans="1:8">
+    <row r="794" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A794" s="4" t="s">
         <v>1110</v>
       </c>
@@ -27334,7 +27323,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="795" spans="1:8">
+    <row r="795" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A795" s="1" t="s">
         <v>1110</v>
       </c>
@@ -27360,7 +27349,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="796" spans="1:8">
+    <row r="796" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A796" s="4" t="s">
         <v>1110</v>
       </c>
@@ -27386,7 +27375,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="797" spans="1:8">
+    <row r="797" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A797" s="1" t="s">
         <v>1110</v>
       </c>
@@ -27412,7 +27401,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="798" spans="1:8">
+    <row r="798" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A798" s="4" t="s">
         <v>1110</v>
       </c>
@@ -27438,7 +27427,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="799" spans="1:8">
+    <row r="799" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A799" s="1" t="s">
         <v>1110</v>
       </c>
@@ -27464,7 +27453,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="800" spans="1:8">
+    <row r="800" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A800" s="4" t="s">
         <v>1110</v>
       </c>
@@ -27490,7 +27479,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="801" spans="1:8">
+    <row r="801" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A801" s="1" t="s">
         <v>1110</v>
       </c>
@@ -27516,7 +27505,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="802" spans="1:8">
+    <row r="802" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A802" s="4" t="s">
         <v>1110</v>
       </c>
@@ -27542,7 +27531,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="803" spans="1:8">
+    <row r="803" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A803" s="1" t="s">
         <v>1110</v>
       </c>
@@ -27568,7 +27557,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="804" spans="1:8">
+    <row r="804" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A804" s="4" t="s">
         <v>1110</v>
       </c>
@@ -27594,7 +27583,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="805" spans="1:8">
+    <row r="805" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A805" s="1" t="s">
         <v>1110</v>
       </c>
@@ -27620,7 +27609,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="806" spans="1:8">
+    <row r="806" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A806" s="4" t="s">
         <v>1110</v>
       </c>
@@ -27646,7 +27635,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="807" spans="1:8">
+    <row r="807" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A807" s="1" t="s">
         <v>1110</v>
       </c>
@@ -27672,7 +27661,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="808" spans="1:8">
+    <row r="808" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A808" s="4" t="s">
         <v>1110</v>
       </c>
@@ -27698,7 +27687,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="809" spans="1:8">
+    <row r="809" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A809" s="1" t="s">
         <v>1110</v>
       </c>
@@ -27724,7 +27713,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="810" spans="1:8">
+    <row r="810" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A810" s="4" t="s">
         <v>1110</v>
       </c>
@@ -27750,7 +27739,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="811" spans="1:8">
+    <row r="811" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A811" s="1" t="s">
         <v>1110</v>
       </c>
@@ -27776,7 +27765,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="812" spans="1:8">
+    <row r="812" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A812" s="4" t="s">
         <v>1110</v>
       </c>
@@ -27802,7 +27791,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="813" spans="1:8">
+    <row r="813" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A813" s="1" t="s">
         <v>1110</v>
       </c>
@@ -27828,7 +27817,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="814" spans="1:8">
+    <row r="814" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A814" s="4" t="s">
         <v>1110</v>
       </c>
@@ -27854,7 +27843,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="815" spans="1:8">
+    <row r="815" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A815" s="1" t="s">
         <v>1110</v>
       </c>
@@ -27880,7 +27869,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="816" spans="1:8">
+    <row r="816" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A816" s="4" t="s">
         <v>1110</v>
       </c>
@@ -27906,7 +27895,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="817" spans="1:8">
+    <row r="817" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A817" s="1" t="s">
         <v>1110</v>
       </c>
@@ -27932,7 +27921,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="818" spans="1:8">
+    <row r="818" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A818" s="4" t="s">
         <v>1110</v>
       </c>
@@ -27958,7 +27947,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="819" spans="1:8">
+    <row r="819" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A819" s="1" t="s">
         <v>1110</v>
       </c>
@@ -27984,7 +27973,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="820" spans="1:8">
+    <row r="820" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A820" s="4" t="s">
         <v>1110</v>
       </c>
@@ -28010,7 +27999,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="821" spans="1:8">
+    <row r="821" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A821" s="1" t="s">
         <v>1110</v>
       </c>
@@ -28036,7 +28025,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="822" spans="1:8">
+    <row r="822" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A822" s="4" t="s">
         <v>1110</v>
       </c>
@@ -28062,7 +28051,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="823" spans="1:8">
+    <row r="823" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A823" s="1" t="s">
         <v>1110</v>
       </c>
@@ -28088,7 +28077,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="824" spans="1:8">
+    <row r="824" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A824" s="4" t="s">
         <v>1110</v>
       </c>
@@ -28114,7 +28103,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="825" spans="1:8">
+    <row r="825" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A825" s="1" t="s">
         <v>1110</v>
       </c>
@@ -28140,7 +28129,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="826" spans="1:8">
+    <row r="826" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A826" s="4" t="s">
         <v>1110</v>
       </c>
@@ -28166,7 +28155,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="827" spans="1:8">
+    <row r="827" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A827" s="1" t="s">
         <v>1110</v>
       </c>
@@ -28192,7 +28181,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="828" spans="1:8">
+    <row r="828" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A828" s="4" t="s">
         <v>1110</v>
       </c>
@@ -28218,7 +28207,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="829" spans="1:8">
+    <row r="829" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A829" s="1" t="s">
         <v>1110</v>
       </c>
@@ -28244,7 +28233,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="830" spans="1:8">
+    <row r="830" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A830" s="4" t="s">
         <v>1110</v>
       </c>
@@ -28270,7 +28259,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="831" spans="1:8">
+    <row r="831" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A831" s="1" t="s">
         <v>1110</v>
       </c>
@@ -28296,7 +28285,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="832" spans="1:8">
+    <row r="832" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A832" s="4" t="s">
         <v>1110</v>
       </c>
@@ -28322,7 +28311,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="833" spans="1:8">
+    <row r="833" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A833" s="1" t="s">
         <v>1110</v>
       </c>
@@ -28348,7 +28337,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="834" spans="1:8">
+    <row r="834" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A834" s="4" t="s">
         <v>1110</v>
       </c>
@@ -28374,7 +28363,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="835" spans="1:8">
+    <row r="835" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A835" s="1" t="s">
         <v>1110</v>
       </c>
@@ -28400,7 +28389,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="836" spans="1:8">
+    <row r="836" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A836" s="4" t="s">
         <v>1110</v>
       </c>
@@ -28426,7 +28415,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="837" spans="1:8">
+    <row r="837" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A837" s="1" t="s">
         <v>1110</v>
       </c>
@@ -28452,7 +28441,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="838" spans="1:8">
+    <row r="838" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A838" s="4" t="s">
         <v>1750</v>
       </c>
@@ -28478,7 +28467,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="839" spans="1:8">
+    <row r="839" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A839" s="1" t="s">
         <v>1750</v>
       </c>
@@ -28504,7 +28493,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="840" spans="1:8">
+    <row r="840" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A840" s="4" t="s">
         <v>1756</v>
       </c>
@@ -28530,7 +28519,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="841" spans="1:8">
+    <row r="841" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A841" s="1" t="s">
         <v>1756</v>
       </c>
@@ -28556,7 +28545,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="842" spans="1:8">
+    <row r="842" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A842" s="4" t="s">
         <v>1756</v>
       </c>
@@ -28582,7 +28571,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="843" spans="1:8">
+    <row r="843" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A843" s="1" t="s">
         <v>1756</v>
       </c>
@@ -28608,7 +28597,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="844" spans="1:8">
+    <row r="844" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A844" s="4" t="s">
         <v>1756</v>
       </c>
@@ -28634,7 +28623,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="845" spans="1:8">
+    <row r="845" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A845" s="1" t="s">
         <v>1756</v>
       </c>
@@ -28660,7 +28649,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="846" spans="1:8">
+    <row r="846" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A846" s="4" t="s">
         <v>1756</v>
       </c>
@@ -28686,7 +28675,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="847" spans="1:8">
+    <row r="847" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A847" s="1" t="s">
         <v>1756</v>
       </c>
@@ -28712,7 +28701,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="848" spans="1:8">
+    <row r="848" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A848" s="4" t="s">
         <v>1756</v>
       </c>
@@ -28738,7 +28727,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="849" spans="1:8">
+    <row r="849" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A849" s="1" t="s">
         <v>1756</v>
       </c>
@@ -28764,7 +28753,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="850" spans="1:8">
+    <row r="850" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A850" s="4" t="s">
         <v>1756</v>
       </c>
@@ -28790,7 +28779,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="851" spans="1:8">
+    <row r="851" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A851" s="1" t="s">
         <v>1756</v>
       </c>
@@ -28816,7 +28805,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="852" spans="1:8">
+    <row r="852" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A852" s="4" t="s">
         <v>1756</v>
       </c>
@@ -28842,7 +28831,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="853" spans="1:8">
+    <row r="853" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A853" s="1" t="s">
         <v>1756</v>
       </c>
@@ -28868,7 +28857,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="854" spans="1:8">
+    <row r="854" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A854" s="4" t="s">
         <v>1756</v>
       </c>
@@ -28894,7 +28883,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="855" spans="1:8">
+    <row r="855" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A855" s="1" t="s">
         <v>1756</v>
       </c>
@@ -28920,7 +28909,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="856" spans="1:8">
+    <row r="856" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A856" s="4" t="s">
         <v>1756</v>
       </c>
@@ -28946,7 +28935,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="857" spans="1:8">
+    <row r="857" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A857" s="1" t="s">
         <v>1756</v>
       </c>
@@ -28972,7 +28961,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="858" spans="1:8">
+    <row r="858" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A858" s="4" t="s">
         <v>1756</v>
       </c>
@@ -28998,7 +28987,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="859" spans="1:8">
+    <row r="859" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A859" s="1" t="s">
         <v>1756</v>
       </c>
@@ -29024,7 +29013,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="860" spans="1:8">
+    <row r="860" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A860" s="4" t="s">
         <v>1756</v>
       </c>
@@ -29050,7 +29039,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="861" spans="1:8">
+    <row r="861" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A861" s="1" t="s">
         <v>1756</v>
       </c>
@@ -29076,7 +29065,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="862" spans="1:8">
+    <row r="862" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A862" s="4" t="s">
         <v>1756</v>
       </c>
@@ -29102,7 +29091,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="863" spans="1:8">
+    <row r="863" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A863" s="1" t="s">
         <v>1756</v>
       </c>
@@ -29128,7 +29117,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="864" spans="1:8">
+    <row r="864" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A864" s="4" t="s">
         <v>1756</v>
       </c>
@@ -29154,7 +29143,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="865" spans="1:8">
+    <row r="865" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A865" s="1" t="s">
         <v>1756</v>
       </c>
@@ -29180,7 +29169,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="866" spans="1:8">
+    <row r="866" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A866" s="4" t="s">
         <v>1756</v>
       </c>
@@ -29206,7 +29195,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="867" spans="1:8">
+    <row r="867" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A867" s="1" t="s">
         <v>1812</v>
       </c>
@@ -29232,7 +29221,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="868" spans="1:8">
+    <row r="868" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A868" s="4" t="s">
         <v>1812</v>
       </c>
@@ -29258,7 +29247,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="869" spans="1:8">
+    <row r="869" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A869" s="1" t="s">
         <v>1812</v>
       </c>
@@ -29284,7 +29273,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="870" spans="1:8">
+    <row r="870" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A870" s="4" t="s">
         <v>1812</v>
       </c>
@@ -29310,7 +29299,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="871" spans="1:8">
+    <row r="871" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A871" s="1" t="s">
         <v>1812</v>
       </c>
@@ -29336,7 +29325,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="872" spans="1:8">
+    <row r="872" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A872" s="4" t="s">
         <v>1812</v>
       </c>
@@ -29362,7 +29351,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="873" spans="1:8">
+    <row r="873" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A873" s="1" t="s">
         <v>1812</v>
       </c>
@@ -29388,7 +29377,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="874" spans="1:8">
+    <row r="874" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A874" s="4" t="s">
         <v>1812</v>
       </c>
@@ -29414,7 +29403,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="875" spans="1:8">
+    <row r="875" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A875" s="1" t="s">
         <v>1812</v>
       </c>
@@ -29440,7 +29429,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="876" spans="1:8">
+    <row r="876" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A876" s="4" t="s">
         <v>1812</v>
       </c>
@@ -29466,7 +29455,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="877" spans="1:8">
+    <row r="877" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A877" s="1" t="s">
         <v>1812</v>
       </c>
@@ -29492,7 +29481,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="878" spans="1:8">
+    <row r="878" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A878" s="4" t="s">
         <v>1812</v>
       </c>
@@ -29518,7 +29507,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="879" spans="1:8">
+    <row r="879" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A879" s="1" t="s">
         <v>1812</v>
       </c>
@@ -29544,7 +29533,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="880" spans="1:8">
+    <row r="880" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A880" s="4" t="s">
         <v>1812</v>
       </c>
@@ -29570,7 +29559,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="881" spans="1:8">
+    <row r="881" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A881" s="1" t="s">
         <v>1812</v>
       </c>
@@ -29596,7 +29585,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="882" spans="1:8">
+    <row r="882" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A882" s="4" t="s">
         <v>1812</v>
       </c>
@@ -29622,7 +29611,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="883" spans="1:8">
+    <row r="883" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A883" s="1" t="s">
         <v>1812</v>
       </c>
@@ -29648,7 +29637,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="884" spans="1:8">
+    <row r="884" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A884" s="4" t="s">
         <v>1812</v>
       </c>
@@ -29674,7 +29663,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="885" spans="1:8">
+    <row r="885" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A885" s="1" t="s">
         <v>1812</v>
       </c>
@@ -29700,7 +29689,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="886" spans="1:8">
+    <row r="886" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A886" s="4" t="s">
         <v>1812</v>
       </c>
@@ -29726,7 +29715,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="887" spans="1:8">
+    <row r="887" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A887" s="1" t="s">
         <v>1812</v>
       </c>
@@ -29752,7 +29741,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="888" spans="1:8">
+    <row r="888" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A888" s="4" t="s">
         <v>1812</v>
       </c>
@@ -29778,7 +29767,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="889" spans="1:8">
+    <row r="889" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A889" s="1" t="s">
         <v>1812</v>
       </c>
@@ -29804,7 +29793,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="890" spans="1:8">
+    <row r="890" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A890" s="4" t="s">
         <v>1812</v>
       </c>
@@ -29830,7 +29819,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="891" spans="1:8">
+    <row r="891" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A891" s="1" t="s">
         <v>1812</v>
       </c>
@@ -29856,7 +29845,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="892" spans="1:8">
+    <row r="892" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A892" s="4" t="s">
         <v>1812</v>
       </c>
@@ -29882,7 +29871,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="893" spans="1:8">
+    <row r="893" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A893" s="1" t="s">
         <v>1812</v>
       </c>
@@ -29908,7 +29897,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="894" spans="1:8">
+    <row r="894" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A894" s="4" t="s">
         <v>1812</v>
       </c>
@@ -29934,7 +29923,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="895" spans="1:8">
+    <row r="895" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A895" s="1" t="s">
         <v>1812</v>
       </c>
@@ -29960,7 +29949,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="896" spans="1:8">
+    <row r="896" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A896" s="4" t="s">
         <v>1812</v>
       </c>
@@ -29986,7 +29975,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="897" spans="1:8">
+    <row r="897" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A897" s="1" t="s">
         <v>1812</v>
       </c>
@@ -30012,7 +30001,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="898" spans="1:8">
+    <row r="898" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A898" s="4" t="s">
         <v>1812</v>
       </c>
@@ -30038,7 +30027,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="899" spans="1:8">
+    <row r="899" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A899" s="1" t="s">
         <v>1812</v>
       </c>
@@ -30064,7 +30053,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="900" spans="1:8">
+    <row r="900" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A900" s="4" t="s">
         <v>1812</v>
       </c>
@@ -30090,7 +30079,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="901" spans="1:8">
+    <row r="901" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A901" s="1" t="s">
         <v>1812</v>
       </c>
@@ -30116,7 +30105,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="902" spans="1:8">
+    <row r="902" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A902" s="4" t="s">
         <v>1812</v>
       </c>
@@ -30142,7 +30131,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="903" spans="1:8">
+    <row r="903" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A903" s="1" t="s">
         <v>1812</v>
       </c>
@@ -30168,7 +30157,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="904" spans="1:8">
+    <row r="904" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A904" s="4" t="s">
         <v>1812</v>
       </c>
@@ -30194,7 +30183,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="905" spans="1:8">
+    <row r="905" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A905" s="1" t="s">
         <v>1812</v>
       </c>
@@ -30220,7 +30209,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="906" spans="1:8">
+    <row r="906" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A906" s="4" t="s">
         <v>1812</v>
       </c>
@@ -30246,7 +30235,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="907" spans="1:8">
+    <row r="907" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A907" s="1" t="s">
         <v>1812</v>
       </c>
@@ -30272,7 +30261,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="908" spans="1:8">
+    <row r="908" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A908" s="4" t="s">
         <v>1812</v>
       </c>
@@ -30298,7 +30287,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="909" spans="1:8">
+    <row r="909" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A909" s="1" t="s">
         <v>1812</v>
       </c>
@@ -30324,7 +30313,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="910" spans="1:8">
+    <row r="910" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A910" s="4" t="s">
         <v>1812</v>
       </c>
@@ -30350,7 +30339,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="911" spans="1:8">
+    <row r="911" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A911" s="1" t="s">
         <v>1812</v>
       </c>
@@ -30376,7 +30365,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="912" spans="1:8">
+    <row r="912" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A912" s="4" t="s">
         <v>1812</v>
       </c>
@@ -30402,7 +30391,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="913" spans="1:8">
+    <row r="913" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A913" s="1" t="s">
         <v>1812</v>
       </c>
@@ -30428,7 +30417,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="914" spans="1:8">
+    <row r="914" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A914" s="4" t="s">
         <v>1812</v>
       </c>
@@ -30454,7 +30443,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="915" spans="1:8">
+    <row r="915" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A915" s="1" t="s">
         <v>1812</v>
       </c>
@@ -30480,7 +30469,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="916" spans="1:8">
+    <row r="916" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A916" s="4" t="s">
         <v>1812</v>
       </c>
@@ -30506,7 +30495,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="917" spans="1:8">
+    <row r="917" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A917" s="1" t="s">
         <v>1812</v>
       </c>
@@ -30532,7 +30521,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="918" spans="1:8">
+    <row r="918" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A918" s="4" t="s">
         <v>1812</v>
       </c>
@@ -30558,7 +30547,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="919" spans="1:8">
+    <row r="919" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A919" s="1" t="s">
         <v>1812</v>
       </c>
@@ -30584,7 +30573,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="920" spans="1:8">
+    <row r="920" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A920" s="4" t="s">
         <v>1812</v>
       </c>
@@ -30610,7 +30599,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="921" spans="1:8">
+    <row r="921" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A921" s="1" t="s">
         <v>1922</v>
       </c>
@@ -30636,7 +30625,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="922" spans="1:8">
+    <row r="922" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A922" s="4" t="s">
         <v>1922</v>
       </c>
@@ -30662,7 +30651,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="923" spans="1:8">
+    <row r="923" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A923" s="1" t="s">
         <v>1922</v>
       </c>
@@ -30688,7 +30677,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="924" spans="1:8">
+    <row r="924" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A924" s="4" t="s">
         <v>1922</v>
       </c>
@@ -30714,7 +30703,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="925" spans="1:8">
+    <row r="925" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A925" s="1" t="s">
         <v>1922</v>
       </c>
@@ -30740,7 +30729,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="926" spans="1:8">
+    <row r="926" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A926" s="4" t="s">
         <v>1922</v>
       </c>
@@ -30766,7 +30755,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="927" spans="1:8">
+    <row r="927" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A927" s="1" t="s">
         <v>1922</v>
       </c>
@@ -30792,7 +30781,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="928" spans="1:8">
+    <row r="928" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A928" s="4" t="s">
         <v>1922</v>
       </c>
@@ -30818,7 +30807,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="929" spans="1:8">
+    <row r="929" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A929" s="1" t="s">
         <v>1940</v>
       </c>
@@ -30844,7 +30833,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="930" spans="1:8">
+    <row r="930" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A930" s="4" t="s">
         <v>1940</v>
       </c>
@@ -30870,7 +30859,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="931" spans="1:8">
+    <row r="931" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A931" s="1" t="s">
         <v>1940</v>
       </c>
@@ -30896,7 +30885,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="932" spans="1:8">
+    <row r="932" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A932" s="4" t="s">
         <v>1940</v>
       </c>
@@ -30922,7 +30911,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="933" spans="1:8">
+    <row r="933" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A933" s="1" t="s">
         <v>1940</v>
       </c>
@@ -30948,7 +30937,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="934" spans="1:8">
+    <row r="934" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A934" s="4" t="s">
         <v>1940</v>
       </c>
@@ -30974,7 +30963,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="935" spans="1:8">
+    <row r="935" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A935" s="1" t="s">
         <v>1940</v>
       </c>
@@ -31000,7 +30989,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="936" spans="1:8">
+    <row r="936" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A936" s="4" t="s">
         <v>1940</v>
       </c>
@@ -31026,7 +31015,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="937" spans="1:8">
+    <row r="937" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A937" s="1" t="s">
         <v>1940</v>
       </c>
@@ -31052,7 +31041,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="938" spans="1:8">
+    <row r="938" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A938" s="4" t="s">
         <v>1940</v>
       </c>
@@ -31078,7 +31067,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="939" spans="1:8">
+    <row r="939" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A939" s="1" t="s">
         <v>1962</v>
       </c>
@@ -31104,7 +31093,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="940" spans="1:8">
+    <row r="940" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A940" s="4" t="s">
         <v>1962</v>
       </c>
@@ -31130,7 +31119,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="941" spans="1:8">
+    <row r="941" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A941" s="1" t="s">
         <v>1968</v>
       </c>
@@ -31156,7 +31145,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="942" spans="1:8">
+    <row r="942" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A942" s="4" t="s">
         <v>1968</v>
       </c>
@@ -31182,7 +31171,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="943" spans="1:8">
+    <row r="943" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A943" s="1" t="s">
         <v>1968</v>
       </c>
@@ -31208,7 +31197,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="944" spans="1:8">
+    <row r="944" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A944" s="4" t="s">
         <v>1968</v>
       </c>
@@ -31234,7 +31223,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="945" spans="1:8">
+    <row r="945" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A945" s="1" t="s">
         <v>1968</v>
       </c>
@@ -31260,7 +31249,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="946" spans="1:8">
+    <row r="946" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A946" s="4" t="s">
         <v>1968</v>
       </c>
@@ -31286,7 +31275,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="947" spans="1:8">
+    <row r="947" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A947" s="1" t="s">
         <v>1968</v>
       </c>
@@ -31312,7 +31301,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="948" spans="1:8">
+    <row r="948" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A948" s="4" t="s">
         <v>1968</v>
       </c>
@@ -31338,7 +31327,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="949" spans="1:8">
+    <row r="949" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A949" s="1" t="s">
         <v>1968</v>
       </c>
@@ -31364,7 +31353,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="950" spans="1:8">
+    <row r="950" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A950" s="4" t="s">
         <v>1968</v>
       </c>
@@ -31390,7 +31379,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="951" spans="1:8">
+    <row r="951" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A951" s="1" t="s">
         <v>1968</v>
       </c>
@@ -31416,7 +31405,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="952" spans="1:8">
+    <row r="952" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A952" s="4" t="s">
         <v>1968</v>
       </c>
@@ -31442,7 +31431,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="953" spans="1:8">
+    <row r="953" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A953" s="1" t="s">
         <v>1968</v>
       </c>
@@ -31468,7 +31457,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="954" spans="1:8">
+    <row r="954" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A954" s="4" t="s">
         <v>1968</v>
       </c>
@@ -31494,7 +31483,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="955" spans="1:8">
+    <row r="955" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A955" s="1" t="s">
         <v>1968</v>
       </c>
@@ -31520,7 +31509,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="956" spans="1:8">
+    <row r="956" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A956" s="4" t="s">
         <v>1968</v>
       </c>
@@ -31546,7 +31535,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="957" spans="1:8">
+    <row r="957" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A957" s="1" t="s">
         <v>1968</v>
       </c>
@@ -31572,7 +31561,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="958" spans="1:8">
+    <row r="958" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A958" s="4" t="s">
         <v>1968</v>
       </c>
@@ -31598,7 +31587,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="959" spans="1:8">
+    <row r="959" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A959" s="1" t="s">
         <v>1968</v>
       </c>
@@ -31624,7 +31613,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="960" spans="1:8">
+    <row r="960" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A960" s="4" t="s">
         <v>1968</v>
       </c>
@@ -31650,7 +31639,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="961" spans="1:8">
+    <row r="961" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A961" s="1" t="s">
         <v>1968</v>
       </c>
@@ -31676,7 +31665,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="962" spans="1:8">
+    <row r="962" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A962" s="4" t="s">
         <v>1968</v>
       </c>
@@ -31702,7 +31691,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="963" spans="1:8">
+    <row r="963" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A963" s="1" t="s">
         <v>1968</v>
       </c>
@@ -31728,7 +31717,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="964" spans="1:8">
+    <row r="964" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A964" s="4" t="s">
         <v>1968</v>
       </c>
@@ -31754,7 +31743,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="965" spans="1:8">
+    <row r="965" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A965" s="1" t="s">
         <v>1968</v>
       </c>
@@ -31780,7 +31769,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="966" spans="1:8">
+    <row r="966" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A966" s="4" t="s">
         <v>1968</v>
       </c>
@@ -31806,7 +31795,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="967" spans="1:8">
+    <row r="967" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A967" s="1" t="s">
         <v>1968</v>
       </c>
@@ -31832,7 +31821,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="968" spans="1:8">
+    <row r="968" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A968" s="4" t="s">
         <v>1968</v>
       </c>
@@ -31858,7 +31847,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="969" spans="1:8">
+    <row r="969" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A969" s="1" t="s">
         <v>1968</v>
       </c>
@@ -31884,7 +31873,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="970" spans="1:8">
+    <row r="970" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A970" s="4" t="s">
         <v>1968</v>
       </c>
@@ -31910,7 +31899,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="971" spans="1:8">
+    <row r="971" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A971" s="1" t="s">
         <v>1968</v>
       </c>
@@ -31936,7 +31925,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="972" spans="1:8">
+    <row r="972" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A972" s="4" t="s">
         <v>1968</v>
       </c>
@@ -31962,7 +31951,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="973" spans="1:8">
+    <row r="973" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A973" s="1" t="s">
         <v>1968</v>
       </c>
@@ -31988,7 +31977,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="974" spans="1:8">
+    <row r="974" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A974" s="4" t="s">
         <v>1968</v>
       </c>
@@ -32014,7 +32003,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="975" spans="1:8">
+    <row r="975" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A975" s="1" t="s">
         <v>1968</v>
       </c>
@@ -32040,7 +32029,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="976" spans="1:8">
+    <row r="976" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A976" s="4" t="s">
         <v>1968</v>
       </c>
@@ -32066,7 +32055,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="977" spans="1:8">
+    <row r="977" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A977" s="1" t="s">
         <v>1968</v>
       </c>
@@ -32092,7 +32081,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="978" spans="1:8">
+    <row r="978" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A978" s="4" t="s">
         <v>1968</v>
       </c>
@@ -32118,7 +32107,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="979" spans="1:8">
+    <row r="979" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A979" s="1" t="s">
         <v>1968</v>
       </c>
@@ -32144,7 +32133,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="980" spans="1:8">
+    <row r="980" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A980" s="4" t="s">
         <v>1968</v>
       </c>
@@ -32170,7 +32159,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="981" spans="1:8">
+    <row r="981" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A981" s="1" t="s">
         <v>1968</v>
       </c>
@@ -32196,7 +32185,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="982" spans="1:8">
+    <row r="982" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A982" s="4" t="s">
         <v>1968</v>
       </c>
@@ -32222,7 +32211,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="983" spans="1:8">
+    <row r="983" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A983" s="1" t="s">
         <v>1968</v>
       </c>
@@ -32248,7 +32237,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="984" spans="1:8">
+    <row r="984" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A984" s="4" t="s">
         <v>1968</v>
       </c>
